--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parnumber" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="499">
   <si>
     <t>Код</t>
   </si>
@@ -1057,622 +1057,466 @@
     <t>Расход ГТП1</t>
   </si>
   <si>
-    <t>ГА-1 СК</t>
-  </si>
-  <si>
-    <t>ГА-2 СК</t>
-  </si>
-  <si>
-    <t>ГА-9 СК</t>
-  </si>
-  <si>
-    <t>ГА-10 СК</t>
-  </si>
-  <si>
-    <t>ГА-1 запущен</t>
-  </si>
-  <si>
-    <t>ГА-2 запущен</t>
-  </si>
-  <si>
-    <t>ГА-3 запущен</t>
-  </si>
-  <si>
-    <t>ГА-4 запущен</t>
-  </si>
-  <si>
-    <t>ГА-5 запущен</t>
-  </si>
-  <si>
-    <t>ГА-6 запущен</t>
-  </si>
-  <si>
-    <t>ГА-7 запущен</t>
-  </si>
-  <si>
-    <t>ГА-8 запущен</t>
-  </si>
-  <si>
-    <t>ГА-9 запущен</t>
-  </si>
-  <si>
-    <t>ГА-10 запущен</t>
-  </si>
-  <si>
-    <t>ГА-1 генерация</t>
-  </si>
-  <si>
-    <t>ГА-2 генерация</t>
-  </si>
-  <si>
-    <t>ГА-9 генерация</t>
-  </si>
-  <si>
-    <t>ГА-10 генерация</t>
-  </si>
-  <si>
-    <t>Ток ШСВ 220</t>
-  </si>
-  <si>
-    <t>Ток ШСВ 110</t>
-  </si>
-  <si>
-    <t>U 1 с.ш. 220</t>
-  </si>
-  <si>
-    <t>F 1 с.ш. 220</t>
-  </si>
-  <si>
-    <t>U 1 с.ш. 110</t>
-  </si>
-  <si>
-    <t>F 1 с.ш. 110</t>
-  </si>
-  <si>
-    <t>U 2 с.ш. 220</t>
-  </si>
-  <si>
-    <t>F 2 с.ш. 220</t>
-  </si>
-  <si>
-    <t>U 2 с.ш. 110</t>
-  </si>
-  <si>
-    <t>F 2 с.ш. 110</t>
-  </si>
-  <si>
-    <t>Суммарное ручное задание Р ГЭС</t>
-  </si>
-  <si>
-    <t>Г1 Расход</t>
-  </si>
-  <si>
-    <t>Г2 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г2 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г2 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г2 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г2 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г2 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г2 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г2 Расход</t>
-  </si>
-  <si>
-    <t>Г3 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г3 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г3 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г3 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г3 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г3 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г3 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г3 Расход</t>
-  </si>
-  <si>
-    <t>Г4 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г4 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г4 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г4 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г4 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г4 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г4 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г4 Расход</t>
-  </si>
-  <si>
-    <t>Г5 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г5 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г5 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г5 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г5 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г5 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г5 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г5 Расход</t>
-  </si>
-  <si>
-    <t>Г6 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г6 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г6 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г6 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г6 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г6 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г6 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г6 Расход</t>
-  </si>
-  <si>
-    <t>Г7 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г7 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г7 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г7 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г7 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г7 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г7 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г7 Расход</t>
-  </si>
-  <si>
-    <t>Верхний бьеф сгл.</t>
-  </si>
-  <si>
-    <t>Нижний бьеф сгл.</t>
-  </si>
-  <si>
-    <t>Напор сглаженный</t>
-  </si>
-  <si>
-    <t>Г8 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г8 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г8 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г8 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г8 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г8 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г8 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г8 Расход</t>
-  </si>
-  <si>
-    <t>Г9 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г9 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г9 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г9 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г9 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г9 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г9 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г9 Расход</t>
-  </si>
-  <si>
-    <t>Г10 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г10 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г10 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г10 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г10 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г10 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г10 Контроль задания напора</t>
-  </si>
-  <si>
-    <t>Г10 Расход</t>
-  </si>
-  <si>
-    <t>Расход воды (Q) ГЭС</t>
-  </si>
-  <si>
     <t>Температура наружного воздуха</t>
   </si>
   <si>
-    <t>Суммарная Р ГЭС</t>
-  </si>
-  <si>
-    <t>Суммарная Q ГЭС</t>
-  </si>
-  <si>
-    <t>I ВВ 1Т 110 кВ</t>
-  </si>
-  <si>
-    <t>P ВВ 1Т 110 кВ</t>
-  </si>
-  <si>
-    <t>Q ВВ 1Т 110 кВ</t>
-  </si>
-  <si>
-    <t>Иж-1 220 I</t>
-  </si>
-  <si>
-    <t>Иж-1 220 P</t>
-  </si>
-  <si>
-    <t>Иж-1 220 Q</t>
-  </si>
-  <si>
-    <t>Иж-2 220 I</t>
-  </si>
-  <si>
-    <t>Иж-2 220 P</t>
-  </si>
-  <si>
-    <t>Иж-2 220 Q</t>
-  </si>
-  <si>
-    <t>Кау-1 220 I</t>
-  </si>
-  <si>
-    <t>Кау-1 220 P</t>
-  </si>
-  <si>
-    <t>Кау-1 220 Q</t>
-  </si>
-  <si>
-    <t>Кау-2 220 I</t>
-  </si>
-  <si>
-    <t>Кау-2 220 P</t>
-  </si>
-  <si>
-    <t>Кау-2 220 Q</t>
-  </si>
-  <si>
-    <t>Светлая 220 I</t>
-  </si>
-  <si>
-    <t>Светлая 220 P</t>
-  </si>
-  <si>
-    <t>Светлая 220 Q</t>
-  </si>
-  <si>
-    <t>OBB 220 I</t>
-  </si>
-  <si>
-    <t>OBB 220 P</t>
-  </si>
-  <si>
-    <t>OBB 220 Q</t>
-  </si>
-  <si>
-    <t>2AT 220 I</t>
-  </si>
-  <si>
-    <t>2AT 220 P</t>
-  </si>
-  <si>
-    <t>2AT 220 Q</t>
-  </si>
-  <si>
-    <t>3AT 220 I</t>
-  </si>
-  <si>
-    <t>3AT 220 P</t>
-  </si>
-  <si>
-    <t>3AT 220 Q</t>
-  </si>
-  <si>
-    <t>4T 220 I</t>
-  </si>
-  <si>
-    <t>4T 220 P</t>
-  </si>
-  <si>
-    <t>4T 220 Q</t>
-  </si>
-  <si>
-    <t>5,6 AT 220 I</t>
-  </si>
-  <si>
-    <t>5,6 AT 220 P</t>
-  </si>
-  <si>
-    <t>5,6 AT 220 Q</t>
-  </si>
-  <si>
-    <t>Г1 Ток ротора</t>
-  </si>
-  <si>
-    <t>Г1 Активная мощность</t>
-  </si>
-  <si>
-    <t>Г1 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Г1 Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Г1 Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Г1 Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Г1 Контроль напора (см)</t>
-  </si>
-  <si>
-    <t>КШТ-1 110КВ I</t>
-  </si>
-  <si>
-    <t>КШТ-1 110КВ P</t>
-  </si>
-  <si>
-    <t>КШТ-1 110КВ Q</t>
-  </si>
-  <si>
-    <t>КШТ-2 110КВ I</t>
-  </si>
-  <si>
-    <t>КШТ-2 110КВ P</t>
-  </si>
-  <si>
-    <t>КШТ-2 110КВ Q</t>
-  </si>
-  <si>
-    <t>Каучук 110КВ I</t>
-  </si>
-  <si>
-    <t>Каучук 110КВ P</t>
-  </si>
-  <si>
-    <t>Каучук 110КВ Q</t>
-  </si>
-  <si>
-    <t>ЧаТЭЦ 110 Кв I</t>
-  </si>
-  <si>
-    <t>ЧаТЭЦ 110 Кв P</t>
-  </si>
-  <si>
-    <t>ЧаТЭЦ 110 Кв Q</t>
-  </si>
-  <si>
-    <t>Березовка 110 кВ I</t>
-  </si>
-  <si>
-    <t>Березовка 110 кВ P</t>
-  </si>
-  <si>
-    <t>Березовка 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Дубовая 110 кВ I</t>
-  </si>
-  <si>
-    <t>Дубовая 110 кВ P</t>
-  </si>
-  <si>
-    <t>Дубовая 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Водозабор 1 - 110 кВ I</t>
-  </si>
-  <si>
-    <t>Водозабор 1 - 110 кВ P</t>
-  </si>
-  <si>
-    <t>Водозабор 1 - 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Водозабор 2 - 110 кВ I</t>
-  </si>
-  <si>
-    <t>Водозабор 2 - 110 кВ P</t>
-  </si>
-  <si>
-    <t>Водозабор 2 - 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Светлая 110 кВ I</t>
-  </si>
-  <si>
-    <t>Светлая 110 кВ P</t>
-  </si>
-  <si>
-    <t>Светлая 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Ивановка 110 кВ I</t>
-  </si>
-  <si>
-    <t>Ивановка 110 кВ P</t>
-  </si>
-  <si>
-    <t>Ивановка 110 кВ Q</t>
-  </si>
-  <si>
-    <t>ОВВ 110 кВ I</t>
-  </si>
-  <si>
-    <t>ОВВ 110 кВ P</t>
-  </si>
-  <si>
-    <t>ОВВ 110 кВ Q</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ I</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ P</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ Q</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ U</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ F</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ I</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ P</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ Q</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ U</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ F</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ I</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ P</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ Q</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ U</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ F</t>
-  </si>
-  <si>
-    <t>ВВ 2АТ 500 кВ I</t>
-  </si>
-  <si>
-    <t>ВВ 2АТ 500 кВ P</t>
-  </si>
-  <si>
-    <t>ВВ 2АТ 500 кВ Q</t>
-  </si>
-  <si>
-    <t>ВВ 3АТ 500 кВ I</t>
-  </si>
-  <si>
-    <t>ВВ 3АТ 500 кВ P</t>
-  </si>
-  <si>
-    <t>ВВ 3АТ 500 кВ Q</t>
-  </si>
-  <si>
-    <t>ВВ 5,6АТ 110 кВ I</t>
-  </si>
-  <si>
-    <t>ВВ 5,6АТ 110 кВ P</t>
-  </si>
-  <si>
-    <t>ВВ 5,6АТ 110 кВ Q</t>
+    <t>Данные из modbus</t>
+  </si>
+  <si>
+    <t>Данные из modbus (расчетные)</t>
+  </si>
+  <si>
+    <t>P РГЕ2</t>
+  </si>
+  <si>
+    <t>P РГЕ3</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-3 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-4 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-5 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-6 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-7 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-8 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим больше макс мощности</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-3 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-4 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-5 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-6 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-7 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-8 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим меньше мин мощности</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим СК</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим СК</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим СК</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим СК</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-3 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-4 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-5 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-6 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-7 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-8 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим Генерация</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-3 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-4 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-5 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-6 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-7 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-8 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим Холостой ход генератора</t>
+  </si>
+  <si>
+    <t>ГА-1 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-2 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-3 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-4 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-5 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-6 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-7 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-8 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-9 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-10 Режим Холостой ход турбины</t>
+  </si>
+  <si>
+    <t>ГА-1 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-2 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-3 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-4 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-5 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-6 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-7 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-8 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-9 Запущен</t>
+  </si>
+  <si>
+    <t>ГА-10 Запущен</t>
+  </si>
+  <si>
+    <t>Расход воды ГЭС</t>
+  </si>
+  <si>
+    <t>ВБ ГЭС</t>
+  </si>
+  <si>
+    <t>НБ ГЭС</t>
+  </si>
+  <si>
+    <t>Напор ГЭС</t>
+  </si>
+  <si>
+    <t>Температура щитовых сооружений</t>
+  </si>
+  <si>
+    <t>ГА-1 Расход</t>
+  </si>
+  <si>
+    <t>ГА-2 Расход</t>
+  </si>
+  <si>
+    <t>ГА-3 Расход</t>
+  </si>
+  <si>
+    <t>ГА-4 Расход</t>
+  </si>
+  <si>
+    <t>ГА-5 Расход</t>
+  </si>
+  <si>
+    <t>ГА-6 Расход</t>
+  </si>
+  <si>
+    <t>ГА-7 Расход</t>
+  </si>
+  <si>
+    <t>ГА-8 Расход</t>
+  </si>
+  <si>
+    <t>ГА-9 Расход</t>
+  </si>
+  <si>
+    <t>ГА-10 Расход</t>
+  </si>
+  <si>
+    <t>ГА-1 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-2 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-3 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-4 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-5 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-6 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-7 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-8 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-9 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-10 Активная мощность</t>
+  </si>
+  <si>
+    <t>ГА-1 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-2 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-3 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-4 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-5 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-6 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-7 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-8 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-9 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-10 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>ГА-1 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-2 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-3 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-4 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-5 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-6 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-7 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-8 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-9 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-10 Открытие направляющего аппарата</t>
+  </si>
+  <si>
+    <t>ГА-1 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-2 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-3 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-4 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-5 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-6 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-7 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-8 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-9 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-10 Г1 Угол открытия  РК</t>
+  </si>
+  <si>
+    <t>ГА-1 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-2 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-3 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-4 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-5 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-6 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-7 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-8 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-9 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-10 Г1 Напор</t>
+  </si>
+  <si>
+    <t>ГА-1 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-2 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-3 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-4 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-5 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-6 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-7 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-8 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-9 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-10 Г1 Максимальная мощность (задание)</t>
+  </si>
+  <si>
+    <t>ГА-1 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-2 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-3 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-4 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-5 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-6 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-7 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-8 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-9 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>ГА-10 Г1 Состояние</t>
   </si>
 </sst>
 </file>
@@ -2121,6 +1965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2315,10 +2160,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,6 +2252,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2414,13 +2276,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7642,10 +7504,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E213"/>
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7675,105 +7538,105 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>340</v>
+      <c r="A2" s="9">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>341</v>
+      <c r="C3" s="9">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>342</v>
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="E6" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>337</v>
+      <c r="E7" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,16 +7644,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7798,16 +7661,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7815,16 +7678,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,16 +7695,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7849,16 +7712,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7866,16 +7729,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,16 +7746,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7900,16 +7763,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7917,16 +7780,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7934,152 +7797,152 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>345</v>
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9">
+        <v>201</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>346</v>
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9">
+        <v>202</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>347</v>
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
+        <v>203</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>348</v>
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9">
+        <v>204</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>359</v>
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
+        <v>205</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>360</v>
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9">
+        <v>206</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
-        <v>29</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>361</v>
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9">
+        <v>207</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>362</v>
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
+        <v>208</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,10 +7956,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8110,180 +7973,180 @@
         <v>12</v>
       </c>
       <c r="D27" s="9">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>2</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="9">
-        <v>12</v>
-      </c>
-      <c r="D28" s="9">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>365</v>
+      <c r="C28" s="4">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4">
+        <v>301</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>2</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="9">
-        <v>12</v>
-      </c>
-      <c r="D29" s="9">
-        <v>8</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>366</v>
+      <c r="C29" s="4">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>302</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="9">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>367</v>
+      <c r="C30" s="4">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4">
+        <v>303</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
         <v>3</v>
       </c>
-      <c r="C31" s="9">
-        <v>12</v>
-      </c>
-      <c r="D31" s="9">
-        <v>12</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>368</v>
+      <c r="C31" s="4">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>304</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>2</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
-        <v>12</v>
-      </c>
-      <c r="D32" s="9">
-        <v>18</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>369</v>
+      <c r="C32" s="4">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>305</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="9">
-        <v>12</v>
-      </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>370</v>
+      <c r="C33" s="4">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4">
+        <v>306</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>2</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
         <v>3</v>
       </c>
-      <c r="C34" s="9">
-        <v>12</v>
-      </c>
-      <c r="D34" s="9">
-        <v>22</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>371</v>
+      <c r="C34" s="4">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
+        <v>307</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>2</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
         <v>3</v>
       </c>
-      <c r="C35" s="9">
-        <v>12</v>
-      </c>
-      <c r="D35" s="9">
-        <v>24</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>372</v>
+      <c r="C35" s="4">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>308</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="9">
-        <v>12</v>
-      </c>
-      <c r="D36" s="9">
-        <v>30</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>457</v>
+      <c r="C36" s="4">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4">
+        <v>309</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>2</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
         <v>3</v>
       </c>
-      <c r="C37" s="9">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9">
-        <v>32</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>458</v>
+      <c r="C37" s="4">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4">
+        <v>310</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8297,10 +8160,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="9">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8314,10 +8177,10 @@
         <v>12</v>
       </c>
       <c r="D39" s="9">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8331,10 +8194,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="9">
-        <v>50</v>
+        <v>403</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8348,10 +8211,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="9">
-        <v>52</v>
+        <v>404</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,10 +8228,10 @@
         <v>12</v>
       </c>
       <c r="D42" s="9">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8382,10 +8245,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="9">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8399,10 +8262,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="9">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8416,10 +8279,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="9">
-        <v>84</v>
+        <v>408</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8433,10 +8296,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="9">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,10 +8313,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="9">
-        <v>88</v>
+        <v>410</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8464,166 +8327,166 @@
         <v>3</v>
       </c>
       <c r="C48" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4">
-        <v>91</v>
+        <v>501</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>2</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
         <v>3</v>
       </c>
-      <c r="C49" s="9">
-        <v>12</v>
-      </c>
-      <c r="D49" s="9">
-        <v>102</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>469</v>
+      <c r="C49" s="4">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4">
+        <v>502</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>2</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
         <v>3</v>
       </c>
-      <c r="C50" s="9">
-        <v>12</v>
-      </c>
-      <c r="D50" s="9">
-        <v>104</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>470</v>
+      <c r="C50" s="4">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4">
+        <v>503</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>2</v>
-      </c>
-      <c r="B51" s="9">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
         <v>3</v>
       </c>
-      <c r="C51" s="9">
-        <v>12</v>
-      </c>
-      <c r="D51" s="9">
-        <v>106</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>471</v>
+      <c r="C51" s="4">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <v>504</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>2</v>
-      </c>
-      <c r="B52" s="9">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="9">
-        <v>12</v>
-      </c>
-      <c r="D52" s="9">
-        <v>120</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>472</v>
+      <c r="C52" s="4">
+        <v>12</v>
+      </c>
+      <c r="D52" s="4">
+        <v>505</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>2</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
         <v>3</v>
       </c>
-      <c r="C53" s="9">
-        <v>12</v>
-      </c>
-      <c r="D53" s="9">
-        <v>122</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>473</v>
+      <c r="C53" s="4">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4">
+        <v>506</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
         <v>3</v>
       </c>
-      <c r="C54" s="9">
-        <v>12</v>
-      </c>
-      <c r="D54" s="9">
-        <v>124</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>474</v>
+      <c r="C54" s="4">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4">
+        <v>507</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>2</v>
-      </c>
-      <c r="B55" s="9">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
         <v>3</v>
       </c>
-      <c r="C55" s="9">
-        <v>12</v>
-      </c>
-      <c r="D55" s="9">
-        <v>138</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>475</v>
+      <c r="C55" s="4">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4">
+        <v>508</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>2</v>
-      </c>
-      <c r="B56" s="9">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
         <v>3</v>
       </c>
-      <c r="C56" s="9">
-        <v>12</v>
-      </c>
-      <c r="D56" s="9">
-        <v>140</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>476</v>
+      <c r="C56" s="4">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4">
+        <v>509</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>2</v>
-      </c>
-      <c r="B57" s="9">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
         <v>3</v>
       </c>
-      <c r="C57" s="9">
-        <v>12</v>
-      </c>
-      <c r="D57" s="9">
-        <v>142</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>477</v>
+      <c r="C57" s="4">
+        <v>12</v>
+      </c>
+      <c r="D57" s="4">
+        <v>510</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8637,10 +8500,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="9">
-        <v>156</v>
+        <v>601</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8654,10 +8517,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="9">
-        <v>158</v>
+        <v>602</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,10 +8534,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="9">
-        <v>160</v>
+        <v>603</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8688,10 +8551,10 @@
         <v>12</v>
       </c>
       <c r="D61" s="9">
-        <v>174</v>
+        <v>604</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,10 +8568,10 @@
         <v>12</v>
       </c>
       <c r="D62" s="9">
-        <v>176</v>
+        <v>605</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8722,10 +8585,10 @@
         <v>12</v>
       </c>
       <c r="D63" s="9">
-        <v>178</v>
+        <v>606</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8739,10 +8602,10 @@
         <v>12</v>
       </c>
       <c r="D64" s="9">
-        <v>192</v>
+        <v>607</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8756,10 +8619,10 @@
         <v>12</v>
       </c>
       <c r="D65" s="9">
-        <v>194</v>
+        <v>608</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8773,10 +8636,10 @@
         <v>12</v>
       </c>
       <c r="D66" s="9">
-        <v>196</v>
+        <v>609</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8790,180 +8653,180 @@
         <v>12</v>
       </c>
       <c r="D67" s="9">
-        <v>210</v>
+        <v>610</v>
       </c>
       <c r="E67" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4">
+        <v>701</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4">
+        <v>3</v>
+      </c>
+      <c r="C69" s="4">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4">
+        <v>702</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4">
+        <v>12</v>
+      </c>
+      <c r="D70" s="4">
+        <v>703</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4">
+        <v>704</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3</v>
+      </c>
+      <c r="C72" s="4">
+        <v>12</v>
+      </c>
+      <c r="D72" s="4">
+        <v>705</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>2</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4">
+        <v>706</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4">
+        <v>12</v>
+      </c>
+      <c r="D74" s="4">
+        <v>707</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>3</v>
+      </c>
+      <c r="C75" s="4">
+        <v>12</v>
+      </c>
+      <c r="D75" s="4">
+        <v>708</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4">
+        <v>709</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>2</v>
-      </c>
-      <c r="B68" s="9">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4">
         <v>3</v>
       </c>
-      <c r="C68" s="9">
-        <v>12</v>
-      </c>
-      <c r="D68" s="9">
-        <v>216</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="C77" s="4">
+        <v>12</v>
+      </c>
+      <c r="D77" s="4">
+        <v>710</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>2</v>
-      </c>
-      <c r="B69" s="9">
-        <v>3</v>
-      </c>
-      <c r="C69" s="9">
-        <v>12</v>
-      </c>
-      <c r="D69" s="9">
-        <v>218</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>2</v>
-      </c>
-      <c r="B70" s="9">
-        <v>3</v>
-      </c>
-      <c r="C70" s="9">
-        <v>12</v>
-      </c>
-      <c r="D70" s="9">
-        <v>220</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>2</v>
-      </c>
-      <c r="B71" s="9">
-        <v>3</v>
-      </c>
-      <c r="C71" s="9">
-        <v>12</v>
-      </c>
-      <c r="D71" s="9">
-        <v>222</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>2</v>
-      </c>
-      <c r="B72" s="9">
-        <v>3</v>
-      </c>
-      <c r="C72" s="9">
-        <v>12</v>
-      </c>
-      <c r="D72" s="9">
-        <v>224</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>2</v>
-      </c>
-      <c r="B73" s="9">
-        <v>3</v>
-      </c>
-      <c r="C73" s="9">
-        <v>12</v>
-      </c>
-      <c r="D73" s="9">
-        <v>230</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>2</v>
-      </c>
-      <c r="B74" s="9">
-        <v>3</v>
-      </c>
-      <c r="C74" s="9">
-        <v>12</v>
-      </c>
-      <c r="D74" s="9">
-        <v>238</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>2</v>
-      </c>
-      <c r="B75" s="9">
-        <v>3</v>
-      </c>
-      <c r="C75" s="9">
-        <v>12</v>
-      </c>
-      <c r="D75" s="9">
-        <v>260</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>2</v>
-      </c>
-      <c r="B76" s="9">
-        <v>3</v>
-      </c>
-      <c r="C76" s="9">
-        <v>12</v>
-      </c>
-      <c r="D76" s="9">
-        <v>266</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
-        <v>2</v>
-      </c>
-      <c r="B77" s="9">
-        <v>3</v>
-      </c>
-      <c r="C77" s="9">
-        <v>12</v>
-      </c>
-      <c r="D77" s="9">
-        <v>268</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8977,10 +8840,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="9">
-        <v>270</v>
+        <v>801</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>378</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8994,10 +8857,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="9">
-        <v>272</v>
+        <v>802</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>379</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -9011,10 +8874,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="9">
-        <v>274</v>
+        <v>803</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>380</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -9028,10 +8891,10 @@
         <v>12</v>
       </c>
       <c r="D81" s="9">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>381</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9045,10 +8908,10 @@
         <v>12</v>
       </c>
       <c r="D82" s="9">
-        <v>288</v>
+        <v>805</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>382</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9062,10 +8925,10 @@
         <v>12</v>
       </c>
       <c r="D83" s="9">
-        <v>310</v>
+        <v>806</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>383</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9079,10 +8942,10 @@
         <v>12</v>
       </c>
       <c r="D84" s="9">
-        <v>316</v>
+        <v>807</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>384</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9096,10 +8959,10 @@
         <v>12</v>
       </c>
       <c r="D85" s="9">
-        <v>318</v>
+        <v>808</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9113,10 +8976,10 @@
         <v>12</v>
       </c>
       <c r="D86" s="9">
-        <v>320</v>
+        <v>809</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9130,61 +8993,41 @@
         <v>12</v>
       </c>
       <c r="D87" s="9">
-        <v>322</v>
+        <v>810</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>387</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
-        <v>2</v>
-      </c>
-      <c r="B88" s="9">
-        <v>3</v>
-      </c>
-      <c r="C88" s="9">
-        <v>12</v>
-      </c>
-      <c r="D88" s="9">
-        <v>324</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>388</v>
-      </c>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
-        <v>2</v>
-      </c>
-      <c r="B89" s="9">
-        <v>3</v>
-      </c>
-      <c r="C89" s="9">
-        <v>12</v>
-      </c>
-      <c r="D89" s="9">
-        <v>330</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>389</v>
-      </c>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>2</v>
       </c>
       <c r="B90" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C90" s="9">
         <v>12</v>
       </c>
       <c r="D90" s="9">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9192,16 +9035,16 @@
         <v>2</v>
       </c>
       <c r="B91" s="9">
+        <v>30</v>
+      </c>
+      <c r="C91" s="9">
+        <v>12</v>
+      </c>
+      <c r="D91" s="9">
         <v>3</v>
       </c>
-      <c r="C91" s="9">
-        <v>12</v>
-      </c>
-      <c r="D91" s="9">
-        <v>360</v>
-      </c>
       <c r="E91" s="9" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9209,16 +9052,16 @@
         <v>2</v>
       </c>
       <c r="B92" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C92" s="9">
         <v>12</v>
       </c>
       <c r="D92" s="9">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9226,16 +9069,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C93" s="9">
         <v>12</v>
       </c>
       <c r="D93" s="9">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9243,16 +9086,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C94" s="9">
         <v>12</v>
       </c>
       <c r="D94" s="9">
-        <v>370</v>
+        <v>33</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9260,16 +9103,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C95" s="9">
         <v>12</v>
       </c>
       <c r="D95" s="9">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9277,16 +9120,16 @@
         <v>2</v>
       </c>
       <c r="B96" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C96" s="9">
         <v>12</v>
       </c>
       <c r="D96" s="9">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9294,16 +9137,16 @@
         <v>2</v>
       </c>
       <c r="B97" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C97" s="9">
         <v>12</v>
       </c>
       <c r="D97" s="9">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9311,186 +9154,186 @@
         <v>2</v>
       </c>
       <c r="B98" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C98" s="9">
         <v>12</v>
       </c>
       <c r="D98" s="9">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>2</v>
-      </c>
-      <c r="B99" s="9">
-        <v>3</v>
-      </c>
-      <c r="C99" s="9">
-        <v>12</v>
-      </c>
-      <c r="D99" s="9">
-        <v>410</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>399</v>
+      <c r="A99" s="4">
+        <v>2</v>
+      </c>
+      <c r="B99" s="4">
+        <v>30</v>
+      </c>
+      <c r="C99" s="4">
+        <v>13</v>
+      </c>
+      <c r="D99" s="4">
+        <v>101</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>2</v>
-      </c>
-      <c r="B100" s="9">
-        <v>3</v>
-      </c>
-      <c r="C100" s="9">
-        <v>12</v>
-      </c>
-      <c r="D100" s="9">
-        <v>416</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>400</v>
+      <c r="A100" s="4">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4">
+        <v>30</v>
+      </c>
+      <c r="C100" s="4">
+        <v>13</v>
+      </c>
+      <c r="D100" s="4">
+        <v>102</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
-        <v>2</v>
-      </c>
-      <c r="B101" s="9">
-        <v>3</v>
-      </c>
-      <c r="C101" s="9">
-        <v>12</v>
-      </c>
-      <c r="D101" s="9">
-        <v>418</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>401</v>
+      <c r="A101" s="4">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4">
+        <v>30</v>
+      </c>
+      <c r="C101" s="4">
+        <v>13</v>
+      </c>
+      <c r="D101" s="4">
+        <v>103</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
-        <v>2</v>
-      </c>
-      <c r="B102" s="9">
-        <v>3</v>
-      </c>
-      <c r="C102" s="9">
-        <v>12</v>
-      </c>
-      <c r="D102" s="9">
-        <v>420</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>402</v>
+      <c r="A102" s="4">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4">
+        <v>30</v>
+      </c>
+      <c r="C102" s="4">
+        <v>13</v>
+      </c>
+      <c r="D102" s="4">
+        <v>104</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>2</v>
-      </c>
-      <c r="B103" s="9">
-        <v>3</v>
-      </c>
-      <c r="C103" s="9">
-        <v>12</v>
-      </c>
-      <c r="D103" s="9">
-        <v>422</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>403</v>
+      <c r="A103" s="4">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4">
+        <v>30</v>
+      </c>
+      <c r="C103" s="4">
+        <v>13</v>
+      </c>
+      <c r="D103" s="4">
+        <v>105</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>2</v>
-      </c>
-      <c r="B104" s="9">
-        <v>3</v>
-      </c>
-      <c r="C104" s="9">
-        <v>12</v>
-      </c>
-      <c r="D104" s="9">
-        <v>424</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>404</v>
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="B104" s="4">
+        <v>30</v>
+      </c>
+      <c r="C104" s="4">
+        <v>13</v>
+      </c>
+      <c r="D104" s="4">
+        <v>106</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
-        <v>2</v>
-      </c>
-      <c r="B105" s="9">
-        <v>3</v>
-      </c>
-      <c r="C105" s="9">
-        <v>12</v>
-      </c>
-      <c r="D105" s="9">
-        <v>430</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>405</v>
+      <c r="A105" s="4">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4">
+        <v>30</v>
+      </c>
+      <c r="C105" s="4">
+        <v>13</v>
+      </c>
+      <c r="D105" s="4">
+        <v>107</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
-        <v>2</v>
-      </c>
-      <c r="B106" s="9">
-        <v>3</v>
-      </c>
-      <c r="C106" s="9">
-        <v>12</v>
-      </c>
-      <c r="D106" s="9">
-        <v>438</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>406</v>
+      <c r="A106" s="4">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4">
+        <v>30</v>
+      </c>
+      <c r="C106" s="4">
+        <v>13</v>
+      </c>
+      <c r="D106" s="4">
+        <v>108</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>2</v>
-      </c>
-      <c r="B107" s="9">
-        <v>3</v>
-      </c>
-      <c r="C107" s="9">
-        <v>12</v>
-      </c>
-      <c r="D107" s="9">
-        <v>460</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>407</v>
+      <c r="A107" s="4">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4">
+        <v>30</v>
+      </c>
+      <c r="C107" s="4">
+        <v>13</v>
+      </c>
+      <c r="D107" s="4">
+        <v>109</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>2</v>
-      </c>
-      <c r="B108" s="9">
-        <v>3</v>
-      </c>
-      <c r="C108" s="9">
-        <v>12</v>
-      </c>
-      <c r="D108" s="9">
-        <v>466</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>408</v>
+      <c r="A108" s="4">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4">
+        <v>30</v>
+      </c>
+      <c r="C108" s="4">
+        <v>13</v>
+      </c>
+      <c r="D108" s="4">
+        <v>110</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9498,16 +9341,16 @@
         <v>2</v>
       </c>
       <c r="B109" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C109" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="9">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9515,16 +9358,16 @@
         <v>2</v>
       </c>
       <c r="B110" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C110" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="9">
-        <v>470</v>
+        <v>202</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9532,16 +9375,16 @@
         <v>2</v>
       </c>
       <c r="B111" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C111" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" s="9">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9549,16 +9392,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C112" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" s="9">
-        <v>474</v>
+        <v>204</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9566,16 +9409,16 @@
         <v>2</v>
       </c>
       <c r="B113" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C113" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" s="9">
-        <v>480</v>
+        <v>205</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9583,16 +9426,16 @@
         <v>2</v>
       </c>
       <c r="B114" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C114" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D114" s="9">
-        <v>488</v>
+        <v>206</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9600,16 +9443,16 @@
         <v>2</v>
       </c>
       <c r="B115" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C115" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" s="9">
-        <v>510</v>
+        <v>207</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9617,16 +9460,16 @@
         <v>2</v>
       </c>
       <c r="B116" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C116" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D116" s="9">
-        <v>516</v>
+        <v>208</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9634,16 +9477,16 @@
         <v>2</v>
       </c>
       <c r="B117" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C117" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="9">
-        <v>518</v>
+        <v>209</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9651,84 +9494,84 @@
         <v>2</v>
       </c>
       <c r="B118" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C118" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" s="9">
-        <v>520</v>
+        <v>210</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
-        <v>2</v>
-      </c>
-      <c r="B119" s="9">
-        <v>3</v>
-      </c>
-      <c r="C119" s="9">
-        <v>12</v>
-      </c>
-      <c r="D119" s="9">
-        <v>522</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>419</v>
+      <c r="A119" s="4">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4">
+        <v>30</v>
+      </c>
+      <c r="C119" s="4">
+        <v>13</v>
+      </c>
+      <c r="D119" s="4">
+        <v>301</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>2</v>
-      </c>
-      <c r="B120" s="9">
-        <v>3</v>
-      </c>
-      <c r="C120" s="9">
-        <v>12</v>
-      </c>
-      <c r="D120" s="9">
-        <v>524</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>420</v>
+      <c r="A120" s="4">
+        <v>2</v>
+      </c>
+      <c r="B120" s="4">
+        <v>30</v>
+      </c>
+      <c r="C120" s="4">
+        <v>13</v>
+      </c>
+      <c r="D120" s="4">
+        <v>302</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>2</v>
-      </c>
-      <c r="B121" s="9">
-        <v>3</v>
-      </c>
-      <c r="C121" s="9">
-        <v>12</v>
-      </c>
-      <c r="D121" s="9">
-        <v>530</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>421</v>
+      <c r="A121" s="4">
+        <v>2</v>
+      </c>
+      <c r="B121" s="4">
+        <v>30</v>
+      </c>
+      <c r="C121" s="4">
+        <v>13</v>
+      </c>
+      <c r="D121" s="4">
+        <v>309</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>2</v>
-      </c>
-      <c r="B122" s="9">
-        <v>3</v>
-      </c>
-      <c r="C122" s="9">
-        <v>12</v>
-      </c>
-      <c r="D122" s="9">
-        <v>538</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>422</v>
+      <c r="A122" s="4">
+        <v>2</v>
+      </c>
+      <c r="B122" s="4">
+        <v>30</v>
+      </c>
+      <c r="C122" s="4">
+        <v>13</v>
+      </c>
+      <c r="D122" s="4">
+        <v>310</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9736,16 +9579,16 @@
         <v>2</v>
       </c>
       <c r="B123" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C123" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" s="9">
-        <v>548</v>
+        <v>401</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9753,16 +9596,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C124" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" s="9">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9770,16 +9613,16 @@
         <v>2</v>
       </c>
       <c r="B125" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C125" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" s="9">
-        <v>552</v>
+        <v>403</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9787,16 +9630,16 @@
         <v>2</v>
       </c>
       <c r="B126" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C126" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" s="9">
-        <v>560</v>
+        <v>404</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9804,16 +9647,16 @@
         <v>2</v>
       </c>
       <c r="B127" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C127" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" s="9">
-        <v>566</v>
+        <v>405</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9821,16 +9664,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C128" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" s="9">
-        <v>568</v>
+        <v>406</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9838,16 +9681,16 @@
         <v>2</v>
       </c>
       <c r="B129" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C129" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" s="9">
-        <v>570</v>
+        <v>407</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9855,16 +9698,16 @@
         <v>2</v>
       </c>
       <c r="B130" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C130" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" s="9">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9872,16 +9715,16 @@
         <v>2</v>
       </c>
       <c r="B131" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C131" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" s="9">
-        <v>574</v>
+        <v>409</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9889,186 +9732,186 @@
         <v>2</v>
       </c>
       <c r="B132" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C132" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" s="9">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>2</v>
-      </c>
-      <c r="B133" s="9">
-        <v>3</v>
-      </c>
-      <c r="C133" s="9">
-        <v>12</v>
-      </c>
-      <c r="D133" s="9">
-        <v>588</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>433</v>
+      <c r="A133" s="4">
+        <v>2</v>
+      </c>
+      <c r="B133" s="4">
+        <v>30</v>
+      </c>
+      <c r="C133" s="4">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4">
+        <v>501</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
-        <v>2</v>
-      </c>
-      <c r="B134" s="9">
-        <v>3</v>
-      </c>
-      <c r="C134" s="9">
-        <v>12</v>
-      </c>
-      <c r="D134" s="9">
-        <v>610</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>434</v>
+      <c r="A134" s="4">
+        <v>2</v>
+      </c>
+      <c r="B134" s="4">
+        <v>30</v>
+      </c>
+      <c r="C134" s="4">
+        <v>13</v>
+      </c>
+      <c r="D134" s="4">
+        <v>502</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
-        <v>2</v>
-      </c>
-      <c r="B135" s="9">
-        <v>3</v>
-      </c>
-      <c r="C135" s="9">
-        <v>12</v>
-      </c>
-      <c r="D135" s="9">
-        <v>616</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>435</v>
+      <c r="A135" s="4">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4">
+        <v>30</v>
+      </c>
+      <c r="C135" s="4">
+        <v>13</v>
+      </c>
+      <c r="D135" s="4">
+        <v>503</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>2</v>
-      </c>
-      <c r="B136" s="9">
-        <v>3</v>
-      </c>
-      <c r="C136" s="9">
-        <v>12</v>
-      </c>
-      <c r="D136" s="9">
-        <v>618</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>436</v>
+      <c r="A136" s="4">
+        <v>2</v>
+      </c>
+      <c r="B136" s="4">
+        <v>30</v>
+      </c>
+      <c r="C136" s="4">
+        <v>13</v>
+      </c>
+      <c r="D136" s="4">
+        <v>504</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>2</v>
-      </c>
-      <c r="B137" s="9">
-        <v>3</v>
-      </c>
-      <c r="C137" s="9">
-        <v>12</v>
-      </c>
-      <c r="D137" s="9">
-        <v>620</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>437</v>
+      <c r="A137" s="4">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4">
+        <v>30</v>
+      </c>
+      <c r="C137" s="4">
+        <v>13</v>
+      </c>
+      <c r="D137" s="4">
+        <v>505</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
-        <v>2</v>
-      </c>
-      <c r="B138" s="9">
-        <v>3</v>
-      </c>
-      <c r="C138" s="9">
-        <v>12</v>
-      </c>
-      <c r="D138" s="9">
-        <v>622</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>438</v>
+      <c r="A138" s="4">
+        <v>2</v>
+      </c>
+      <c r="B138" s="4">
+        <v>30</v>
+      </c>
+      <c r="C138" s="4">
+        <v>13</v>
+      </c>
+      <c r="D138" s="4">
+        <v>506</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>2</v>
-      </c>
-      <c r="B139" s="9">
-        <v>3</v>
-      </c>
-      <c r="C139" s="9">
-        <v>12</v>
-      </c>
-      <c r="D139" s="9">
-        <v>624</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>439</v>
+      <c r="A139" s="4">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4">
+        <v>30</v>
+      </c>
+      <c r="C139" s="4">
+        <v>13</v>
+      </c>
+      <c r="D139" s="4">
+        <v>507</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
-        <v>2</v>
-      </c>
-      <c r="B140" s="9">
-        <v>3</v>
-      </c>
-      <c r="C140" s="9">
-        <v>12</v>
-      </c>
-      <c r="D140" s="9">
-        <v>630</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>440</v>
+      <c r="A140" s="4">
+        <v>2</v>
+      </c>
+      <c r="B140" s="4">
+        <v>30</v>
+      </c>
+      <c r="C140" s="4">
+        <v>13</v>
+      </c>
+      <c r="D140" s="4">
+        <v>508</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
-        <v>2</v>
-      </c>
-      <c r="B141" s="9">
-        <v>3</v>
-      </c>
-      <c r="C141" s="9">
-        <v>12</v>
-      </c>
-      <c r="D141" s="9">
-        <v>638</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>441</v>
+      <c r="A141" s="4">
+        <v>2</v>
+      </c>
+      <c r="B141" s="4">
+        <v>30</v>
+      </c>
+      <c r="C141" s="4">
+        <v>13</v>
+      </c>
+      <c r="D141" s="4">
+        <v>509</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
-        <v>2</v>
-      </c>
-      <c r="B142" s="9">
-        <v>3</v>
-      </c>
-      <c r="C142" s="9">
-        <v>12</v>
-      </c>
-      <c r="D142" s="9">
-        <v>660</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>442</v>
+      <c r="A142" s="4">
+        <v>2</v>
+      </c>
+      <c r="B142" s="4">
+        <v>30</v>
+      </c>
+      <c r="C142" s="4">
+        <v>13</v>
+      </c>
+      <c r="D142" s="4">
+        <v>510</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10076,16 +9919,16 @@
         <v>2</v>
       </c>
       <c r="B143" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C143" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D143" s="9">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10093,16 +9936,16 @@
         <v>2</v>
       </c>
       <c r="B144" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C144" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D144" s="9">
-        <v>668</v>
+        <v>602</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10110,16 +9953,16 @@
         <v>2</v>
       </c>
       <c r="B145" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C145" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D145" s="9">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10127,16 +9970,16 @@
         <v>2</v>
       </c>
       <c r="B146" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C146" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D146" s="9">
-        <v>672</v>
+        <v>604</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10144,16 +9987,16 @@
         <v>2</v>
       </c>
       <c r="B147" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C147" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D147" s="9">
-        <v>674</v>
+        <v>605</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10161,16 +10004,16 @@
         <v>2</v>
       </c>
       <c r="B148" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C148" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148" s="9">
-        <v>680</v>
+        <v>606</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10178,16 +10021,16 @@
         <v>2</v>
       </c>
       <c r="B149" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C149" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149" s="9">
-        <v>688</v>
+        <v>607</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10195,16 +10038,16 @@
         <v>2</v>
       </c>
       <c r="B150" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C150" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D150" s="9">
-        <v>708</v>
+        <v>608</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10212,16 +10055,16 @@
         <v>2</v>
       </c>
       <c r="B151" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C151" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D151" s="9">
-        <v>746</v>
+        <v>609</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10229,186 +10072,186 @@
         <v>2</v>
       </c>
       <c r="B152" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C152" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D152" s="9">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
-        <v>2</v>
-      </c>
-      <c r="B153" s="9">
-        <v>3</v>
-      </c>
-      <c r="C153" s="9">
-        <v>12</v>
-      </c>
-      <c r="D153" s="9">
-        <v>764</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>453</v>
+      <c r="A153" s="4">
+        <v>2</v>
+      </c>
+      <c r="B153" s="4">
+        <v>30</v>
+      </c>
+      <c r="C153" s="4">
+        <v>13</v>
+      </c>
+      <c r="D153" s="4">
+        <v>701</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
-        <v>2</v>
-      </c>
-      <c r="B154" s="9">
-        <v>3</v>
-      </c>
-      <c r="C154" s="9">
-        <v>12</v>
-      </c>
-      <c r="D154" s="9">
-        <v>810</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>494</v>
+      <c r="A154" s="4">
+        <v>2</v>
+      </c>
+      <c r="B154" s="4">
+        <v>30</v>
+      </c>
+      <c r="C154" s="4">
+        <v>13</v>
+      </c>
+      <c r="D154" s="4">
+        <v>702</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
-        <v>2</v>
-      </c>
-      <c r="B155" s="9">
-        <v>3</v>
-      </c>
-      <c r="C155" s="9">
-        <v>12</v>
-      </c>
-      <c r="D155" s="9">
-        <v>812</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>495</v>
+      <c r="A155" s="4">
+        <v>2</v>
+      </c>
+      <c r="B155" s="4">
+        <v>30</v>
+      </c>
+      <c r="C155" s="4">
+        <v>13</v>
+      </c>
+      <c r="D155" s="4">
+        <v>703</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>2</v>
-      </c>
-      <c r="B156" s="9">
-        <v>3</v>
-      </c>
-      <c r="C156" s="9">
-        <v>12</v>
-      </c>
-      <c r="D156" s="9">
-        <v>814</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>496</v>
+      <c r="A156" s="4">
+        <v>2</v>
+      </c>
+      <c r="B156" s="4">
+        <v>30</v>
+      </c>
+      <c r="C156" s="4">
+        <v>13</v>
+      </c>
+      <c r="D156" s="4">
+        <v>704</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>2</v>
-      </c>
-      <c r="B157" s="9">
-        <v>3</v>
-      </c>
-      <c r="C157" s="9">
-        <v>12</v>
-      </c>
-      <c r="D157" s="9">
-        <v>820</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>497</v>
+      <c r="A157" s="4">
+        <v>2</v>
+      </c>
+      <c r="B157" s="4">
+        <v>30</v>
+      </c>
+      <c r="C157" s="4">
+        <v>13</v>
+      </c>
+      <c r="D157" s="4">
+        <v>705</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
-        <v>2</v>
-      </c>
-      <c r="B158" s="9">
-        <v>3</v>
-      </c>
-      <c r="C158" s="9">
-        <v>12</v>
-      </c>
-      <c r="D158" s="9">
-        <v>822</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>498</v>
+      <c r="A158" s="4">
+        <v>2</v>
+      </c>
+      <c r="B158" s="4">
+        <v>30</v>
+      </c>
+      <c r="C158" s="4">
+        <v>13</v>
+      </c>
+      <c r="D158" s="4">
+        <v>706</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
-        <v>2</v>
-      </c>
-      <c r="B159" s="9">
-        <v>3</v>
-      </c>
-      <c r="C159" s="9">
-        <v>12</v>
-      </c>
-      <c r="D159" s="9">
-        <v>824</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>499</v>
+      <c r="A159" s="4">
+        <v>2</v>
+      </c>
+      <c r="B159" s="4">
+        <v>30</v>
+      </c>
+      <c r="C159" s="4">
+        <v>13</v>
+      </c>
+      <c r="D159" s="4">
+        <v>707</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
-        <v>2</v>
-      </c>
-      <c r="B160" s="9">
-        <v>3</v>
-      </c>
-      <c r="C160" s="9">
-        <v>12</v>
-      </c>
-      <c r="D160" s="9">
-        <v>830</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>500</v>
+      <c r="A160" s="4">
+        <v>2</v>
+      </c>
+      <c r="B160" s="4">
+        <v>30</v>
+      </c>
+      <c r="C160" s="4">
+        <v>13</v>
+      </c>
+      <c r="D160" s="4">
+        <v>708</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
-        <v>2</v>
-      </c>
-      <c r="B161" s="9">
-        <v>3</v>
-      </c>
-      <c r="C161" s="9">
-        <v>12</v>
-      </c>
-      <c r="D161" s="9">
-        <v>832</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>501</v>
+      <c r="A161" s="4">
+        <v>2</v>
+      </c>
+      <c r="B161" s="4">
+        <v>30</v>
+      </c>
+      <c r="C161" s="4">
+        <v>13</v>
+      </c>
+      <c r="D161" s="4">
+        <v>709</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
-        <v>2</v>
-      </c>
-      <c r="B162" s="9">
-        <v>3</v>
-      </c>
-      <c r="C162" s="9">
-        <v>12</v>
-      </c>
-      <c r="D162" s="9">
-        <v>834</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>502</v>
+      <c r="A162" s="4">
+        <v>2</v>
+      </c>
+      <c r="B162" s="4">
+        <v>30</v>
+      </c>
+      <c r="C162" s="4">
+        <v>13</v>
+      </c>
+      <c r="D162" s="4">
+        <v>710</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10416,16 +10259,16 @@
         <v>2</v>
       </c>
       <c r="B163" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C163" s="9">
         <v>12</v>
       </c>
       <c r="D163" s="9">
-        <v>840</v>
+        <v>701</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>503</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10433,16 +10276,16 @@
         <v>2</v>
       </c>
       <c r="B164" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C164" s="9">
         <v>12</v>
       </c>
       <c r="D164" s="9">
-        <v>842</v>
+        <v>702</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10450,16 +10293,16 @@
         <v>2</v>
       </c>
       <c r="B165" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C165" s="9">
         <v>12</v>
       </c>
       <c r="D165" s="9">
-        <v>844</v>
+        <v>703</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>505</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10467,16 +10310,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C166" s="9">
         <v>12</v>
       </c>
       <c r="D166" s="9">
-        <v>850</v>
+        <v>704</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>506</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10484,16 +10327,16 @@
         <v>2</v>
       </c>
       <c r="B167" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C167" s="9">
         <v>12</v>
       </c>
       <c r="D167" s="9">
-        <v>852</v>
+        <v>705</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>507</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10501,16 +10344,16 @@
         <v>2</v>
       </c>
       <c r="B168" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C168" s="9">
         <v>12</v>
       </c>
       <c r="D168" s="9">
-        <v>854</v>
+        <v>706</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>508</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10518,16 +10361,16 @@
         <v>2</v>
       </c>
       <c r="B169" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C169" s="9">
         <v>12</v>
       </c>
       <c r="D169" s="9">
-        <v>860</v>
+        <v>707</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>509</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10535,16 +10378,16 @@
         <v>2</v>
       </c>
       <c r="B170" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C170" s="9">
         <v>12</v>
       </c>
       <c r="D170" s="9">
-        <v>862</v>
+        <v>708</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>510</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10552,16 +10395,16 @@
         <v>2</v>
       </c>
       <c r="B171" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C171" s="9">
         <v>12</v>
       </c>
       <c r="D171" s="9">
-        <v>864</v>
+        <v>709</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10569,716 +10412,20 @@
         <v>2</v>
       </c>
       <c r="B172" s="9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C172" s="9">
         <v>12</v>
       </c>
       <c r="D172" s="9">
-        <v>870</v>
+        <v>710</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
-        <v>2</v>
-      </c>
-      <c r="B173" s="9">
-        <v>3</v>
-      </c>
-      <c r="C173" s="9">
-        <v>12</v>
-      </c>
-      <c r="D173" s="9">
-        <v>872</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
-        <v>2</v>
-      </c>
-      <c r="B174" s="9">
-        <v>3</v>
-      </c>
-      <c r="C174" s="9">
-        <v>12</v>
-      </c>
-      <c r="D174" s="9">
-        <v>874</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
-        <v>2</v>
-      </c>
-      <c r="B175" s="9">
-        <v>3</v>
-      </c>
-      <c r="C175" s="9">
-        <v>12</v>
-      </c>
-      <c r="D175" s="9">
-        <v>880</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
-        <v>2</v>
-      </c>
-      <c r="B176" s="9">
-        <v>3</v>
-      </c>
-      <c r="C176" s="9">
-        <v>12</v>
-      </c>
-      <c r="D176" s="9">
-        <v>882</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
-        <v>2</v>
-      </c>
-      <c r="B177" s="9">
-        <v>3</v>
-      </c>
-      <c r="C177" s="9">
-        <v>12</v>
-      </c>
-      <c r="D177" s="9">
-        <v>884</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
-        <v>2</v>
-      </c>
-      <c r="B178" s="9">
-        <v>3</v>
-      </c>
-      <c r="C178" s="9">
-        <v>12</v>
-      </c>
-      <c r="D178" s="9">
-        <v>890</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
-        <v>2</v>
-      </c>
-      <c r="B179" s="9">
-        <v>3</v>
-      </c>
-      <c r="C179" s="9">
-        <v>12</v>
-      </c>
-      <c r="D179" s="9">
-        <v>892</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
-        <v>2</v>
-      </c>
-      <c r="B180" s="9">
-        <v>3</v>
-      </c>
-      <c r="C180" s="9">
-        <v>12</v>
-      </c>
-      <c r="D180" s="9">
-        <v>894</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
-        <v>2</v>
-      </c>
-      <c r="B181" s="9">
-        <v>3</v>
-      </c>
-      <c r="C181" s="9">
-        <v>12</v>
-      </c>
-      <c r="D181" s="9">
-        <v>900</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
-        <v>2</v>
-      </c>
-      <c r="B182" s="9">
-        <v>3</v>
-      </c>
-      <c r="C182" s="9">
-        <v>12</v>
-      </c>
-      <c r="D182" s="9">
-        <v>902</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
-        <v>2</v>
-      </c>
-      <c r="B183" s="9">
-        <v>3</v>
-      </c>
-      <c r="C183" s="9">
-        <v>12</v>
-      </c>
-      <c r="D183" s="9">
-        <v>904</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
-        <v>2</v>
-      </c>
-      <c r="B184" s="9">
-        <v>3</v>
-      </c>
-      <c r="C184" s="9">
-        <v>12</v>
-      </c>
-      <c r="D184" s="9">
-        <v>910</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
-        <v>2</v>
-      </c>
-      <c r="B185" s="9">
-        <v>3</v>
-      </c>
-      <c r="C185" s="9">
-        <v>12</v>
-      </c>
-      <c r="D185" s="9">
-        <v>912</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
-        <v>2</v>
-      </c>
-      <c r="B186" s="9">
-        <v>3</v>
-      </c>
-      <c r="C186" s="9">
-        <v>12</v>
-      </c>
-      <c r="D186" s="9">
-        <v>914</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
-        <v>2</v>
-      </c>
-      <c r="B187" s="9">
-        <v>3</v>
-      </c>
-      <c r="C187" s="9">
-        <v>12</v>
-      </c>
-      <c r="D187" s="9">
-        <v>930</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
-        <v>2</v>
-      </c>
-      <c r="B188" s="9">
-        <v>3</v>
-      </c>
-      <c r="C188" s="9">
-        <v>12</v>
-      </c>
-      <c r="D188" s="9">
-        <v>932</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
-        <v>2</v>
-      </c>
-      <c r="B189" s="9">
-        <v>3</v>
-      </c>
-      <c r="C189" s="9">
-        <v>12</v>
-      </c>
-      <c r="D189" s="9">
-        <v>934</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
-        <v>2</v>
-      </c>
-      <c r="B190" s="9">
-        <v>3</v>
-      </c>
-      <c r="C190" s="9">
-        <v>12</v>
-      </c>
-      <c r="D190" s="9">
-        <v>936</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
-        <v>2</v>
-      </c>
-      <c r="B191" s="9">
-        <v>3</v>
-      </c>
-      <c r="C191" s="9">
-        <v>12</v>
-      </c>
-      <c r="D191" s="9">
-        <v>938</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
-        <v>2</v>
-      </c>
-      <c r="B192" s="9">
-        <v>3</v>
-      </c>
-      <c r="C192" s="9">
-        <v>12</v>
-      </c>
-      <c r="D192" s="9">
-        <v>940</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
-        <v>2</v>
-      </c>
-      <c r="B193" s="9">
-        <v>3</v>
-      </c>
-      <c r="C193" s="9">
-        <v>12</v>
-      </c>
-      <c r="D193" s="9">
-        <v>942</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
-        <v>2</v>
-      </c>
-      <c r="B194" s="9">
-        <v>3</v>
-      </c>
-      <c r="C194" s="9">
-        <v>12</v>
-      </c>
-      <c r="D194" s="9">
-        <v>944</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
-        <v>2</v>
-      </c>
-      <c r="B195" s="9">
-        <v>3</v>
-      </c>
-      <c r="C195" s="9">
-        <v>12</v>
-      </c>
-      <c r="D195" s="9">
-        <v>946</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
-        <v>2</v>
-      </c>
-      <c r="B196" s="9">
-        <v>3</v>
-      </c>
-      <c r="C196" s="9">
-        <v>12</v>
-      </c>
-      <c r="D196" s="9">
-        <v>948</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
-        <v>2</v>
-      </c>
-      <c r="B197" s="9">
-        <v>3</v>
-      </c>
-      <c r="C197" s="9">
-        <v>12</v>
-      </c>
-      <c r="D197" s="9">
-        <v>950</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
-        <v>2</v>
-      </c>
-      <c r="B198" s="9">
-        <v>3</v>
-      </c>
-      <c r="C198" s="9">
-        <v>12</v>
-      </c>
-      <c r="D198" s="9">
-        <v>952</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
-        <v>2</v>
-      </c>
-      <c r="B199" s="9">
-        <v>3</v>
-      </c>
-      <c r="C199" s="9">
-        <v>12</v>
-      </c>
-      <c r="D199" s="9">
-        <v>954</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
-        <v>2</v>
-      </c>
-      <c r="B200" s="9">
-        <v>3</v>
-      </c>
-      <c r="C200" s="9">
-        <v>12</v>
-      </c>
-      <c r="D200" s="9">
-        <v>956</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
-        <v>2</v>
-      </c>
-      <c r="B201" s="9">
-        <v>3</v>
-      </c>
-      <c r="C201" s="9">
-        <v>12</v>
-      </c>
-      <c r="D201" s="9">
-        <v>958</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="9">
-        <v>2</v>
-      </c>
-      <c r="B202" s="9">
-        <v>3</v>
-      </c>
-      <c r="C202" s="9">
-        <v>12</v>
-      </c>
-      <c r="D202" s="9">
-        <v>970</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
-        <v>2</v>
-      </c>
-      <c r="B203" s="9">
-        <v>3</v>
-      </c>
-      <c r="C203" s="9">
-        <v>12</v>
-      </c>
-      <c r="D203" s="9">
-        <v>972</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="9">
-        <v>2</v>
-      </c>
-      <c r="B204" s="9">
-        <v>3</v>
-      </c>
-      <c r="C204" s="9">
-        <v>12</v>
-      </c>
-      <c r="D204" s="9">
-        <v>974</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="9">
-        <v>2</v>
-      </c>
-      <c r="B205" s="9">
-        <v>3</v>
-      </c>
-      <c r="C205" s="9">
-        <v>12</v>
-      </c>
-      <c r="D205" s="9">
-        <v>980</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="9">
-        <v>2</v>
-      </c>
-      <c r="B206" s="9">
-        <v>3</v>
-      </c>
-      <c r="C206" s="9">
-        <v>12</v>
-      </c>
-      <c r="D206" s="9">
-        <v>982</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="9">
-        <v>2</v>
-      </c>
-      <c r="B207" s="9">
-        <v>3</v>
-      </c>
-      <c r="C207" s="9">
-        <v>12</v>
-      </c>
-      <c r="D207" s="9">
-        <v>984</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="9">
-        <v>2</v>
-      </c>
-      <c r="B208" s="9">
-        <v>3</v>
-      </c>
-      <c r="C208" s="9">
-        <v>12</v>
-      </c>
-      <c r="D208" s="9">
-        <v>990</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
-        <v>2</v>
-      </c>
-      <c r="B209" s="9">
-        <v>3</v>
-      </c>
-      <c r="C209" s="9">
-        <v>12</v>
-      </c>
-      <c r="D209" s="9">
-        <v>992</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="9">
-        <v>2</v>
-      </c>
-      <c r="B210" s="9">
-        <v>3</v>
-      </c>
-      <c r="C210" s="9">
-        <v>12</v>
-      </c>
-      <c r="D210" s="9">
-        <v>994</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="9">
-        <v>2</v>
-      </c>
-      <c r="B211" s="9">
-        <v>3</v>
-      </c>
-      <c r="C211" s="9">
-        <v>12</v>
-      </c>
-      <c r="D211" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="9">
-        <v>2</v>
-      </c>
-      <c r="B212" s="9">
-        <v>3</v>
-      </c>
-      <c r="C212" s="9">
-        <v>12</v>
-      </c>
-      <c r="D212" s="9">
-        <v>1002</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
-        <v>2</v>
-      </c>
-      <c r="B213" s="9">
-        <v>3</v>
-      </c>
-      <c r="C213" s="9">
-        <v>12</v>
-      </c>
-      <c r="D213" s="9">
-        <v>1004</v>
-      </c>
-      <c r="E213" s="9" t="s">
-        <v>547</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="500">
   <si>
     <t>Код</t>
   </si>
@@ -1339,36 +1339,6 @@
     <t>ГА-10 Активная мощность</t>
   </si>
   <si>
-    <t>ГА-1 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-2 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-3 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-4 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-5 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-6 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-7 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-8 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-9 Реактивная мощность</t>
-  </si>
-  <si>
-    <t>ГА-10 Реактивная мощность</t>
-  </si>
-  <si>
     <t>ГА-1 Открытие направляющего аппарата</t>
   </si>
   <si>
@@ -1517,6 +1487,39 @@
   </si>
   <si>
     <t>ГА-10 Г1 Состояние</t>
+  </si>
+  <si>
+    <t>НПРЧ</t>
+  </si>
+  <si>
+    <t>ГА-1 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-2 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-3 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-4 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-5 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-6 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-7 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-8 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-9 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>ГА-10 Коррекция P по F</t>
   </si>
 </sst>
 </file>
@@ -1624,20 +1627,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1660,10 +1663,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1990,7 +2006,7 @@
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1998,7 +2014,7 @@
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2006,7 +2022,7 @@
       <c r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2022,7 +2038,7 @@
       <c r="A6" s="1">
         <v>26</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2076,7 +2092,7 @@
       <c r="A13" s="1">
         <v>312</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2161,7 +2177,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -2213,59 +2229,67 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="14">
         <v>30</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7507,8 +7531,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7993,7 +8017,7 @@
         <v>301</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8010,7 +8034,7 @@
         <v>302</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8027,7 +8051,7 @@
         <v>303</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8044,7 +8068,7 @@
         <v>304</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8061,7 +8085,7 @@
         <v>305</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8078,7 +8102,7 @@
         <v>306</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8095,7 +8119,7 @@
         <v>307</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8112,7 +8136,7 @@
         <v>308</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8129,7 +8153,7 @@
         <v>309</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8146,7 +8170,7 @@
         <v>310</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8163,7 +8187,7 @@
         <v>401</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8180,7 +8204,7 @@
         <v>402</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8197,7 +8221,7 @@
         <v>403</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8214,7 +8238,7 @@
         <v>404</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8231,7 +8255,7 @@
         <v>405</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8248,7 +8272,7 @@
         <v>406</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8289,7 @@
         <v>407</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,7 +8306,7 @@
         <v>408</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8299,7 +8323,7 @@
         <v>409</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8316,7 +8340,7 @@
         <v>410</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8333,7 +8357,7 @@
         <v>501</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,7 +8374,7 @@
         <v>502</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8367,7 +8391,7 @@
         <v>503</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8384,7 +8408,7 @@
         <v>504</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8401,7 +8425,7 @@
         <v>505</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8418,7 +8442,7 @@
         <v>506</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8435,7 +8459,7 @@
         <v>507</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8452,7 +8476,7 @@
         <v>508</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8469,7 +8493,7 @@
         <v>509</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8486,7 +8510,7 @@
         <v>510</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8503,7 +8527,7 @@
         <v>601</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8520,7 +8544,7 @@
         <v>602</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8537,7 +8561,7 @@
         <v>603</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8554,7 +8578,7 @@
         <v>604</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8571,7 +8595,7 @@
         <v>605</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8588,7 +8612,7 @@
         <v>606</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8605,7 +8629,7 @@
         <v>607</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8622,7 +8646,7 @@
         <v>608</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8639,7 +8663,7 @@
         <v>609</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8656,7 +8680,7 @@
         <v>610</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8673,7 +8697,7 @@
         <v>701</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8690,7 +8714,7 @@
         <v>702</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8707,7 +8731,7 @@
         <v>703</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8724,7 +8748,7 @@
         <v>704</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8741,7 +8765,7 @@
         <v>705</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8758,7 +8782,7 @@
         <v>706</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8775,7 +8799,7 @@
         <v>707</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8792,7 +8816,7 @@
         <v>708</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8809,7 +8833,7 @@
         <v>709</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8826,7 +8850,7 @@
         <v>710</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8843,7 +8867,7 @@
         <v>801</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8860,7 +8884,7 @@
         <v>802</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8877,7 +8901,7 @@
         <v>803</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8894,7 +8918,7 @@
         <v>804</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8911,7 +8935,7 @@
         <v>805</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8928,7 +8952,7 @@
         <v>806</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8945,7 +8969,7 @@
         <v>807</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8962,7 +8986,7 @@
         <v>808</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8979,7 +9003,7 @@
         <v>809</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -8996,7 +9020,7 @@
         <v>810</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">

--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="513">
   <si>
     <t>Код</t>
   </si>
@@ -1520,13 +1520,52 @@
   </si>
   <si>
     <t>ГА-10 Коррекция P по F</t>
+  </si>
+  <si>
+    <t>Расход через турбины</t>
+  </si>
+  <si>
+    <t>Расход через ВП</t>
+  </si>
+  <si>
+    <t>U 110</t>
+  </si>
+  <si>
+    <t>U 220</t>
+  </si>
+  <si>
+    <t>U 500</t>
+  </si>
+  <si>
+    <t>U 110 1СШ</t>
+  </si>
+  <si>
+    <t>U 110 2СШ</t>
+  </si>
+  <si>
+    <t>U 220 1СШ</t>
+  </si>
+  <si>
+    <t>U 220 2СШ</t>
+  </si>
+  <si>
+    <t>U 500 ЕМЕЛИНО</t>
+  </si>
+  <si>
+    <t>U 500 КАРМАНОВО</t>
+  </si>
+  <si>
+    <t>U 500 ВЯТКА</t>
+  </si>
+  <si>
+    <t>Q ГЭС (Реакт.мощность)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,6 +1586,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1640,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1680,6 +1727,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2303,10 +2351,10 @@
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="E279" sqref="A278:E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7028,37 +7076,37 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
-        <v>2</v>
-      </c>
-      <c r="B278" s="4">
-        <v>10</v>
-      </c>
-      <c r="C278" s="4">
-        <v>12</v>
-      </c>
-      <c r="D278" s="4">
+      <c r="A278" s="19">
+        <v>2</v>
+      </c>
+      <c r="B278" s="19">
         <v>1</v>
       </c>
-      <c r="E278" s="4" t="s">
-        <v>324</v>
+      <c r="C278" s="19">
+        <v>12</v>
+      </c>
+      <c r="D278" s="19">
+        <v>355</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
-        <v>2</v>
-      </c>
-      <c r="B279" s="4">
-        <v>10</v>
-      </c>
-      <c r="C279" s="4">
-        <v>12</v>
-      </c>
-      <c r="D279" s="4">
-        <v>2</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>325</v>
+      <c r="A279" s="19">
+        <v>2</v>
+      </c>
+      <c r="B279" s="19">
+        <v>1</v>
+      </c>
+      <c r="C279" s="19">
+        <v>12</v>
+      </c>
+      <c r="D279" s="19">
+        <v>356</v>
+      </c>
+      <c r="E279" s="19" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7072,44 +7120,44 @@
         <v>12</v>
       </c>
       <c r="D280" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E280" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>2</v>
+      </c>
+      <c r="B281" s="4">
+        <v>10</v>
+      </c>
+      <c r="C281" s="4">
+        <v>12</v>
+      </c>
+      <c r="D281" s="4">
+        <v>2</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>2</v>
+      </c>
+      <c r="B282" s="4">
+        <v>10</v>
+      </c>
+      <c r="C282" s="4">
+        <v>12</v>
+      </c>
+      <c r="D282" s="4">
+        <v>3</v>
+      </c>
+      <c r="E282" s="4" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="9">
-        <v>2</v>
-      </c>
-      <c r="B281" s="9">
-        <v>7</v>
-      </c>
-      <c r="C281" s="9">
-        <v>26</v>
-      </c>
-      <c r="D281" s="10">
-        <v>2</v>
-      </c>
-      <c r="E281" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="9">
-        <v>2</v>
-      </c>
-      <c r="B282" s="9">
-        <v>7</v>
-      </c>
-      <c r="C282" s="9">
-        <v>26</v>
-      </c>
-      <c r="D282" s="10">
-        <v>3</v>
-      </c>
-      <c r="E282" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,10 +7171,10 @@
         <v>26</v>
       </c>
       <c r="D283" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7140,10 +7188,10 @@
         <v>26</v>
       </c>
       <c r="D284" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7157,10 +7205,10 @@
         <v>26</v>
       </c>
       <c r="D285" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7174,10 +7222,10 @@
         <v>26</v>
       </c>
       <c r="D286" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7191,10 +7239,10 @@
         <v>26</v>
       </c>
       <c r="D287" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,10 +7256,10 @@
         <v>26</v>
       </c>
       <c r="D288" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7225,10 +7273,10 @@
         <v>26</v>
       </c>
       <c r="D289" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7242,10 +7290,10 @@
         <v>26</v>
       </c>
       <c r="D290" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7259,10 +7307,10 @@
         <v>26</v>
       </c>
       <c r="D291" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,10 +7324,10 @@
         <v>26</v>
       </c>
       <c r="D292" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7293,10 +7341,10 @@
         <v>26</v>
       </c>
       <c r="D293" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7310,10 +7358,10 @@
         <v>26</v>
       </c>
       <c r="D294" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7327,10 +7375,10 @@
         <v>26</v>
       </c>
       <c r="D295" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7344,10 +7392,10 @@
         <v>26</v>
       </c>
       <c r="D296" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,10 +7409,10 @@
         <v>26</v>
       </c>
       <c r="D297" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7378,10 +7426,10 @@
         <v>26</v>
       </c>
       <c r="D298" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,10 +7443,10 @@
         <v>26</v>
       </c>
       <c r="D299" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7412,10 +7460,10 @@
         <v>26</v>
       </c>
       <c r="D300" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7429,10 +7477,10 @@
         <v>26</v>
       </c>
       <c r="D301" s="10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7446,10 +7494,10 @@
         <v>26</v>
       </c>
       <c r="D302" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7463,10 +7511,10 @@
         <v>26</v>
       </c>
       <c r="D303" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7480,10 +7528,10 @@
         <v>26</v>
       </c>
       <c r="D304" s="10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7497,10 +7545,10 @@
         <v>26</v>
       </c>
       <c r="D305" s="10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7514,9 +7562,43 @@
         <v>26</v>
       </c>
       <c r="D306" s="10">
+        <v>25</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="9">
+        <v>2</v>
+      </c>
+      <c r="B307" s="9">
+        <v>7</v>
+      </c>
+      <c r="C307" s="9">
+        <v>26</v>
+      </c>
+      <c r="D307" s="10">
+        <v>26</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="9">
+        <v>2</v>
+      </c>
+      <c r="B308" s="9">
+        <v>7</v>
+      </c>
+      <c r="C308" s="9">
+        <v>26</v>
+      </c>
+      <c r="D308" s="10">
         <v>27</v>
       </c>
-      <c r="E306" s="10" t="s">
+      <c r="E308" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7529,10 +7611,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,343 +7746,333 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="A8" s="19">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>12</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>11</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>12</v>
+      </c>
+      <c r="D13" s="19">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>13</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>15</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>2</v>
+      </c>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="19">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>17</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>19</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
         <v>101</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
         <v>102</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
         <v>103</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4">
         <v>106</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>107</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4">
-        <v>108</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4">
-        <v>109</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>110</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>2</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9">
-        <v>201</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
-        <v>202</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>2</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9">
-        <v>203</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9">
-        <v>204</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>2</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9">
-        <v>205</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>2</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9">
-        <v>206</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>2</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9">
-        <v>207</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>2</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
-        <v>12</v>
-      </c>
-      <c r="D25" s="9">
-        <v>208</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9">
-        <v>209</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>2</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>12</v>
-      </c>
-      <c r="D27" s="9">
-        <v>210</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8014,10 +8086,10 @@
         <v>12</v>
       </c>
       <c r="D28" s="4">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8031,10 +8103,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="4">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8048,10 +8120,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="4">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8065,112 +8137,112 @@
         <v>12</v>
       </c>
       <c r="D31" s="4">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4">
-        <v>305</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>494</v>
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9">
+        <v>201</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4">
-        <v>306</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>495</v>
+      <c r="A33" s="9">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>12</v>
+      </c>
+      <c r="D33" s="9">
+        <v>202</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4">
-        <v>307</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>496</v>
+      <c r="A34" s="9">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9">
+        <v>203</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4">
-        <v>308</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>497</v>
+      <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>12</v>
+      </c>
+      <c r="D35" s="9">
+        <v>204</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>12</v>
-      </c>
-      <c r="D36" s="4">
-        <v>309</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>498</v>
+      <c r="A36" s="9">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9">
+        <v>205</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>12</v>
-      </c>
-      <c r="D37" s="4">
-        <v>310</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>499</v>
+      <c r="A37" s="9">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9">
+        <v>12</v>
+      </c>
+      <c r="D37" s="9">
+        <v>206</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8184,10 +8256,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="9">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,10 +8273,10 @@
         <v>12</v>
       </c>
       <c r="D39" s="9">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8218,10 +8290,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="9">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8235,112 +8307,112 @@
         <v>12</v>
       </c>
       <c r="D41" s="9">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9">
-        <v>12</v>
-      </c>
-      <c r="D42" s="9">
-        <v>405</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>443</v>
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4">
+        <v>301</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9">
-        <v>12</v>
-      </c>
-      <c r="D43" s="9">
-        <v>406</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>444</v>
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>302</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9">
-        <v>12</v>
-      </c>
-      <c r="D44" s="9">
-        <v>407</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>445</v>
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>303</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>3</v>
-      </c>
-      <c r="C45" s="9">
-        <v>12</v>
-      </c>
-      <c r="D45" s="9">
-        <v>408</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>446</v>
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4">
+        <v>304</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>3</v>
-      </c>
-      <c r="C46" s="9">
-        <v>12</v>
-      </c>
-      <c r="D46" s="9">
-        <v>409</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>447</v>
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4">
+        <v>305</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>2</v>
-      </c>
-      <c r="B47" s="9">
-        <v>3</v>
-      </c>
-      <c r="C47" s="9">
-        <v>12</v>
-      </c>
-      <c r="D47" s="9">
-        <v>410</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>448</v>
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4">
+        <v>306</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8354,10 +8426,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="4">
-        <v>501</v>
+        <v>307</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8371,10 +8443,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>502</v>
+        <v>308</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8388,10 +8460,10 @@
         <v>12</v>
       </c>
       <c r="D50" s="4">
-        <v>503</v>
+        <v>309</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,112 +8477,112 @@
         <v>12</v>
       </c>
       <c r="D51" s="4">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4">
-        <v>12</v>
-      </c>
-      <c r="D52" s="4">
-        <v>505</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>453</v>
+      <c r="A52" s="9">
+        <v>2</v>
+      </c>
+      <c r="B52" s="9">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9">
+        <v>401</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>2</v>
-      </c>
-      <c r="B53" s="4">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4">
-        <v>506</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>454</v>
+      <c r="A53" s="9">
+        <v>2</v>
+      </c>
+      <c r="B53" s="9">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>402</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4">
-        <v>507</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>455</v>
+      <c r="A54" s="9">
+        <v>2</v>
+      </c>
+      <c r="B54" s="9">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9">
+        <v>403</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4">
-        <v>12</v>
-      </c>
-      <c r="D55" s="4">
-        <v>508</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>456</v>
+      <c r="A55" s="9">
+        <v>2</v>
+      </c>
+      <c r="B55" s="9">
+        <v>3</v>
+      </c>
+      <c r="C55" s="9">
+        <v>12</v>
+      </c>
+      <c r="D55" s="9">
+        <v>404</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>2</v>
-      </c>
-      <c r="B56" s="4">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4">
-        <v>509</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>457</v>
+      <c r="A56" s="9">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9">
+        <v>3</v>
+      </c>
+      <c r="C56" s="9">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9">
+        <v>405</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>2</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3</v>
-      </c>
-      <c r="C57" s="4">
-        <v>12</v>
-      </c>
-      <c r="D57" s="4">
-        <v>510</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>458</v>
+      <c r="A57" s="9">
+        <v>2</v>
+      </c>
+      <c r="B57" s="9">
+        <v>3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>12</v>
+      </c>
+      <c r="D57" s="9">
+        <v>406</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8524,10 +8596,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="9">
-        <v>601</v>
+        <v>407</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8541,10 +8613,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="9">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8558,10 +8630,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="9">
-        <v>603</v>
+        <v>409</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8575,112 +8647,112 @@
         <v>12</v>
       </c>
       <c r="D61" s="9">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>2</v>
-      </c>
-      <c r="B62" s="9">
-        <v>3</v>
-      </c>
-      <c r="C62" s="9">
-        <v>12</v>
-      </c>
-      <c r="D62" s="9">
-        <v>605</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>463</v>
+      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3</v>
+      </c>
+      <c r="C62" s="4">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <v>501</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>2</v>
-      </c>
-      <c r="B63" s="9">
-        <v>3</v>
-      </c>
-      <c r="C63" s="9">
-        <v>12</v>
-      </c>
-      <c r="D63" s="9">
-        <v>606</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>464</v>
+      <c r="A63" s="4">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4">
+        <v>502</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>2</v>
-      </c>
-      <c r="B64" s="9">
-        <v>3</v>
-      </c>
-      <c r="C64" s="9">
-        <v>12</v>
-      </c>
-      <c r="D64" s="9">
-        <v>607</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>465</v>
+      <c r="A64" s="4">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4">
+        <v>503</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>2</v>
-      </c>
-      <c r="B65" s="9">
-        <v>3</v>
-      </c>
-      <c r="C65" s="9">
-        <v>12</v>
-      </c>
-      <c r="D65" s="9">
-        <v>608</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>466</v>
+      <c r="A65" s="4">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3</v>
+      </c>
+      <c r="C65" s="4">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4">
+        <v>504</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>2</v>
-      </c>
-      <c r="B66" s="9">
-        <v>3</v>
-      </c>
-      <c r="C66" s="9">
-        <v>12</v>
-      </c>
-      <c r="D66" s="9">
-        <v>609</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>467</v>
+      <c r="A66" s="4">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4">
+        <v>505</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>2</v>
-      </c>
-      <c r="B67" s="9">
-        <v>3</v>
-      </c>
-      <c r="C67" s="9">
-        <v>12</v>
-      </c>
-      <c r="D67" s="9">
-        <v>610</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>468</v>
+      <c r="A67" s="4">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4">
+        <v>506</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8694,10 +8766,10 @@
         <v>12</v>
       </c>
       <c r="D68" s="4">
-        <v>701</v>
+        <v>507</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8711,10 +8783,10 @@
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <v>702</v>
+        <v>508</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8728,10 +8800,10 @@
         <v>12</v>
       </c>
       <c r="D70" s="4">
-        <v>703</v>
+        <v>509</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8745,112 +8817,112 @@
         <v>12</v>
       </c>
       <c r="D71" s="4">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>2</v>
-      </c>
-      <c r="B72" s="4">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4">
-        <v>12</v>
-      </c>
-      <c r="D72" s="4">
-        <v>705</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>473</v>
+      <c r="A72" s="9">
+        <v>2</v>
+      </c>
+      <c r="B72" s="9">
+        <v>3</v>
+      </c>
+      <c r="C72" s="9">
+        <v>12</v>
+      </c>
+      <c r="D72" s="9">
+        <v>601</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>2</v>
-      </c>
-      <c r="B73" s="4">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4">
-        <v>12</v>
-      </c>
-      <c r="D73" s="4">
-        <v>706</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>474</v>
+      <c r="A73" s="9">
+        <v>2</v>
+      </c>
+      <c r="B73" s="9">
+        <v>3</v>
+      </c>
+      <c r="C73" s="9">
+        <v>12</v>
+      </c>
+      <c r="D73" s="9">
+        <v>602</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>2</v>
-      </c>
-      <c r="B74" s="4">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4">
-        <v>12</v>
-      </c>
-      <c r="D74" s="4">
-        <v>707</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>475</v>
+      <c r="A74" s="9">
+        <v>2</v>
+      </c>
+      <c r="B74" s="9">
+        <v>3</v>
+      </c>
+      <c r="C74" s="9">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <v>603</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>2</v>
-      </c>
-      <c r="B75" s="4">
-        <v>3</v>
-      </c>
-      <c r="C75" s="4">
-        <v>12</v>
-      </c>
-      <c r="D75" s="4">
-        <v>708</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>476</v>
+      <c r="A75" s="9">
+        <v>2</v>
+      </c>
+      <c r="B75" s="9">
+        <v>3</v>
+      </c>
+      <c r="C75" s="9">
+        <v>12</v>
+      </c>
+      <c r="D75" s="9">
+        <v>604</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>2</v>
-      </c>
-      <c r="B76" s="4">
-        <v>3</v>
-      </c>
-      <c r="C76" s="4">
-        <v>12</v>
-      </c>
-      <c r="D76" s="4">
-        <v>709</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>477</v>
+      <c r="A76" s="9">
+        <v>2</v>
+      </c>
+      <c r="B76" s="9">
+        <v>3</v>
+      </c>
+      <c r="C76" s="9">
+        <v>12</v>
+      </c>
+      <c r="D76" s="9">
+        <v>605</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>2</v>
-      </c>
-      <c r="B77" s="4">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4">
-        <v>12</v>
-      </c>
-      <c r="D77" s="4">
-        <v>710</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>478</v>
+      <c r="A77" s="9">
+        <v>2</v>
+      </c>
+      <c r="B77" s="9">
+        <v>3</v>
+      </c>
+      <c r="C77" s="9">
+        <v>12</v>
+      </c>
+      <c r="D77" s="9">
+        <v>606</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,10 +8936,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="9">
-        <v>801</v>
+        <v>607</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,10 +8953,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="9">
-        <v>802</v>
+        <v>608</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,10 +8970,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="9">
-        <v>803</v>
+        <v>609</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,160 +8987,180 @@
         <v>12</v>
       </c>
       <c r="D81" s="9">
-        <v>804</v>
+        <v>610</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>2</v>
-      </c>
-      <c r="B82" s="9">
-        <v>3</v>
-      </c>
-      <c r="C82" s="9">
-        <v>12</v>
-      </c>
-      <c r="D82" s="9">
-        <v>805</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>483</v>
+      <c r="A82" s="4">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4">
+        <v>3</v>
+      </c>
+      <c r="C82" s="4">
+        <v>12</v>
+      </c>
+      <c r="D82" s="4">
+        <v>701</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
-        <v>2</v>
-      </c>
-      <c r="B83" s="9">
-        <v>3</v>
-      </c>
-      <c r="C83" s="9">
-        <v>12</v>
-      </c>
-      <c r="D83" s="9">
-        <v>806</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>484</v>
+      <c r="A83" s="4">
+        <v>2</v>
+      </c>
+      <c r="B83" s="4">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4">
+        <v>702</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>2</v>
-      </c>
-      <c r="B84" s="9">
-        <v>3</v>
-      </c>
-      <c r="C84" s="9">
-        <v>12</v>
-      </c>
-      <c r="D84" s="9">
-        <v>807</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>485</v>
+      <c r="A84" s="4">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4">
+        <v>12</v>
+      </c>
+      <c r="D84" s="4">
+        <v>703</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>2</v>
-      </c>
-      <c r="B85" s="9">
-        <v>3</v>
-      </c>
-      <c r="C85" s="9">
-        <v>12</v>
-      </c>
-      <c r="D85" s="9">
-        <v>808</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>486</v>
+      <c r="A85" s="4">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4">
+        <v>704</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
-        <v>2</v>
-      </c>
-      <c r="B86" s="9">
-        <v>3</v>
-      </c>
-      <c r="C86" s="9">
-        <v>12</v>
-      </c>
-      <c r="D86" s="9">
-        <v>809</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>487</v>
+      <c r="A86" s="4">
+        <v>2</v>
+      </c>
+      <c r="B86" s="4">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4">
+        <v>12</v>
+      </c>
+      <c r="D86" s="4">
+        <v>705</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
-        <v>2</v>
-      </c>
-      <c r="B87" s="9">
-        <v>3</v>
-      </c>
-      <c r="C87" s="9">
-        <v>12</v>
-      </c>
-      <c r="D87" s="9">
-        <v>810</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>488</v>
+      <c r="A87" s="4">
+        <v>2</v>
+      </c>
+      <c r="B87" s="4">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4">
+        <v>12</v>
+      </c>
+      <c r="D87" s="4">
+        <v>706</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="4">
+        <v>2</v>
+      </c>
+      <c r="B88" s="4">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4">
+        <v>707</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="4">
+        <v>2</v>
+      </c>
+      <c r="B89" s="4">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>12</v>
+      </c>
+      <c r="D89" s="4">
+        <v>708</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
-        <v>2</v>
-      </c>
-      <c r="B90" s="9">
-        <v>30</v>
-      </c>
-      <c r="C90" s="9">
-        <v>12</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>340</v>
+      <c r="A90" s="4">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4">
+        <v>3</v>
+      </c>
+      <c r="C90" s="4">
+        <v>12</v>
+      </c>
+      <c r="D90" s="4">
+        <v>709</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
-        <v>2</v>
-      </c>
-      <c r="B91" s="9">
-        <v>30</v>
-      </c>
-      <c r="C91" s="9">
-        <v>12</v>
-      </c>
-      <c r="D91" s="9">
-        <v>3</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>341</v>
+      <c r="A91" s="4">
+        <v>2</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4">
+        <v>710</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9076,16 +9168,16 @@
         <v>2</v>
       </c>
       <c r="B92" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C92" s="9">
         <v>12</v>
       </c>
       <c r="D92" s="9">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>342</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9093,16 +9185,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C93" s="9">
         <v>12</v>
       </c>
       <c r="D93" s="9">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>348</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9110,16 +9202,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C94" s="9">
         <v>12</v>
       </c>
       <c r="D94" s="9">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9127,16 +9219,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C95" s="9">
         <v>12</v>
       </c>
       <c r="D95" s="9">
-        <v>34</v>
+        <v>804</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>349</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9144,16 +9236,16 @@
         <v>2</v>
       </c>
       <c r="B96" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C96" s="9">
         <v>12</v>
       </c>
       <c r="D96" s="9">
-        <v>5</v>
+        <v>805</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>343</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9161,16 +9253,16 @@
         <v>2</v>
       </c>
       <c r="B97" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C97" s="9">
         <v>12</v>
       </c>
       <c r="D97" s="9">
-        <v>6</v>
+        <v>806</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>344</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9178,186 +9270,166 @@
         <v>2</v>
       </c>
       <c r="B98" s="9">
+        <v>3</v>
+      </c>
+      <c r="C98" s="9">
+        <v>12</v>
+      </c>
+      <c r="D98" s="9">
+        <v>807</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>2</v>
+      </c>
+      <c r="B99" s="9">
+        <v>3</v>
+      </c>
+      <c r="C99" s="9">
+        <v>12</v>
+      </c>
+      <c r="D99" s="9">
+        <v>808</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>2</v>
+      </c>
+      <c r="B100" s="9">
+        <v>3</v>
+      </c>
+      <c r="C100" s="9">
+        <v>12</v>
+      </c>
+      <c r="D100" s="9">
+        <v>809</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>2</v>
+      </c>
+      <c r="B101" s="9">
+        <v>3</v>
+      </c>
+      <c r="C101" s="9">
+        <v>12</v>
+      </c>
+      <c r="D101" s="9">
+        <v>810</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>2</v>
+      </c>
+      <c r="B104" s="9">
         <v>30</v>
       </c>
-      <c r="C98" s="9">
-        <v>12</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>2</v>
-      </c>
-      <c r="B99" s="4">
+      <c r="C104" s="9">
+        <v>12</v>
+      </c>
+      <c r="D104" s="9">
+        <v>2</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>2</v>
+      </c>
+      <c r="B105" s="9">
         <v>30</v>
       </c>
-      <c r="C99" s="4">
-        <v>13</v>
-      </c>
-      <c r="D99" s="4">
-        <v>101</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>2</v>
-      </c>
-      <c r="B100" s="4">
+      <c r="C105" s="9">
+        <v>12</v>
+      </c>
+      <c r="D105" s="9">
+        <v>3</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>2</v>
+      </c>
+      <c r="B106" s="9">
         <v>30</v>
       </c>
-      <c r="C100" s="4">
-        <v>13</v>
-      </c>
-      <c r="D100" s="4">
-        <v>102</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4">
+      <c r="C106" s="9">
+        <v>12</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>2</v>
+      </c>
+      <c r="B107" s="9">
         <v>30</v>
       </c>
-      <c r="C101" s="4">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>103</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>2</v>
-      </c>
-      <c r="B102" s="4">
+      <c r="C107" s="9">
+        <v>12</v>
+      </c>
+      <c r="D107" s="9">
+        <v>32</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>2</v>
+      </c>
+      <c r="B108" s="9">
         <v>30</v>
       </c>
-      <c r="C102" s="4">
-        <v>13</v>
-      </c>
-      <c r="D102" s="4">
-        <v>104</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>2</v>
-      </c>
-      <c r="B103" s="4">
-        <v>30</v>
-      </c>
-      <c r="C103" s="4">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4">
-        <v>105</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>2</v>
-      </c>
-      <c r="B104" s="4">
-        <v>30</v>
-      </c>
-      <c r="C104" s="4">
-        <v>13</v>
-      </c>
-      <c r="D104" s="4">
-        <v>106</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>2</v>
-      </c>
-      <c r="B105" s="4">
-        <v>30</v>
-      </c>
-      <c r="C105" s="4">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4">
-        <v>107</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>2</v>
-      </c>
-      <c r="B106" s="4">
-        <v>30</v>
-      </c>
-      <c r="C106" s="4">
-        <v>13</v>
-      </c>
-      <c r="D106" s="4">
-        <v>108</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>2</v>
-      </c>
-      <c r="B107" s="4">
-        <v>30</v>
-      </c>
-      <c r="C107" s="4">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>109</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>2</v>
-      </c>
-      <c r="B108" s="4">
-        <v>30</v>
-      </c>
-      <c r="C108" s="4">
-        <v>13</v>
-      </c>
-      <c r="D108" s="4">
-        <v>110</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>359</v>
+      <c r="C108" s="9">
+        <v>12</v>
+      </c>
+      <c r="D108" s="9">
+        <v>33</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9368,13 +9440,13 @@
         <v>30</v>
       </c>
       <c r="C109" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" s="9">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9385,13 +9457,13 @@
         <v>30</v>
       </c>
       <c r="C110" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="9">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9402,13 +9474,13 @@
         <v>30</v>
       </c>
       <c r="C111" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="9">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,115 +9491,115 @@
         <v>30</v>
       </c>
       <c r="C112" s="9">
+        <v>12</v>
+      </c>
+      <c r="D112" s="9">
+        <v>4</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4">
+        <v>30</v>
+      </c>
+      <c r="C113" s="4">
         <v>13</v>
       </c>
-      <c r="D112" s="9">
-        <v>204</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>2</v>
-      </c>
-      <c r="B113" s="9">
+      <c r="D113" s="4">
+        <v>101</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4">
         <v>30</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C114" s="4">
         <v>13</v>
       </c>
-      <c r="D113" s="9">
-        <v>205</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
-        <v>2</v>
-      </c>
-      <c r="B114" s="9">
+      <c r="D114" s="4">
+        <v>102</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4">
         <v>30</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C115" s="4">
         <v>13</v>
       </c>
-      <c r="D114" s="9">
-        <v>206</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>2</v>
-      </c>
-      <c r="B115" s="9">
+      <c r="D115" s="4">
+        <v>103</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4">
         <v>30</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C116" s="4">
         <v>13</v>
       </c>
-      <c r="D115" s="9">
-        <v>207</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>2</v>
-      </c>
-      <c r="B116" s="9">
+      <c r="D116" s="4">
+        <v>104</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4">
         <v>30</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C117" s="4">
         <v>13</v>
       </c>
-      <c r="D116" s="9">
-        <v>208</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>2</v>
-      </c>
-      <c r="B117" s="9">
+      <c r="D117" s="4">
+        <v>105</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>2</v>
+      </c>
+      <c r="B118" s="4">
         <v>30</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C118" s="4">
         <v>13</v>
       </c>
-      <c r="D117" s="9">
-        <v>209</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>2</v>
-      </c>
-      <c r="B118" s="9">
-        <v>30</v>
-      </c>
-      <c r="C118" s="9">
-        <v>13</v>
-      </c>
-      <c r="D118" s="9">
-        <v>210</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>369</v>
+      <c r="D118" s="4">
+        <v>106</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9541,10 +9613,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="4">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9558,10 +9630,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="4">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9575,10 +9647,10 @@
         <v>13</v>
       </c>
       <c r="D121" s="4">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9592,10 +9664,10 @@
         <v>13</v>
       </c>
       <c r="D122" s="4">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9609,10 +9681,10 @@
         <v>13</v>
       </c>
       <c r="D123" s="9">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9626,10 +9698,10 @@
         <v>13</v>
       </c>
       <c r="D124" s="9">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9643,10 +9715,10 @@
         <v>13</v>
       </c>
       <c r="D125" s="9">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9660,10 +9732,10 @@
         <v>13</v>
       </c>
       <c r="D126" s="9">
-        <v>404</v>
+        <v>204</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9677,10 +9749,10 @@
         <v>13</v>
       </c>
       <c r="D127" s="9">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9694,10 +9766,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="9">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9711,10 +9783,10 @@
         <v>13</v>
       </c>
       <c r="D129" s="9">
-        <v>407</v>
+        <v>207</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9728,10 +9800,10 @@
         <v>13</v>
       </c>
       <c r="D130" s="9">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9745,10 +9817,10 @@
         <v>13</v>
       </c>
       <c r="D131" s="9">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9762,10 +9834,10 @@
         <v>13</v>
       </c>
       <c r="D132" s="9">
-        <v>410</v>
+        <v>210</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9779,10 +9851,10 @@
         <v>13</v>
       </c>
       <c r="D133" s="4">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,10 +9868,10 @@
         <v>13</v>
       </c>
       <c r="D134" s="4">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9813,10 +9885,10 @@
         <v>13</v>
       </c>
       <c r="D135" s="4">
-        <v>503</v>
+        <v>309</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9830,112 +9902,112 @@
         <v>13</v>
       </c>
       <c r="D136" s="4">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>2</v>
-      </c>
-      <c r="B137" s="4">
+      <c r="A137" s="9">
+        <v>2</v>
+      </c>
+      <c r="B137" s="9">
         <v>30</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="9">
         <v>13</v>
       </c>
-      <c r="D137" s="4">
-        <v>505</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>388</v>
+      <c r="D137" s="9">
+        <v>401</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>2</v>
-      </c>
-      <c r="B138" s="4">
+      <c r="A138" s="9">
+        <v>2</v>
+      </c>
+      <c r="B138" s="9">
         <v>30</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="9">
         <v>13</v>
       </c>
-      <c r="D138" s="4">
-        <v>506</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>389</v>
+      <c r="D138" s="9">
+        <v>402</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>2</v>
-      </c>
-      <c r="B139" s="4">
+      <c r="A139" s="9">
+        <v>2</v>
+      </c>
+      <c r="B139" s="9">
         <v>30</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="9">
         <v>13</v>
       </c>
-      <c r="D139" s="4">
-        <v>507</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>390</v>
+      <c r="D139" s="9">
+        <v>403</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>2</v>
-      </c>
-      <c r="B140" s="4">
+      <c r="A140" s="9">
+        <v>2</v>
+      </c>
+      <c r="B140" s="9">
         <v>30</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="9">
         <v>13</v>
       </c>
-      <c r="D140" s="4">
-        <v>508</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>391</v>
+      <c r="D140" s="9">
+        <v>404</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
-        <v>2</v>
-      </c>
-      <c r="B141" s="4">
+      <c r="A141" s="9">
+        <v>2</v>
+      </c>
+      <c r="B141" s="9">
         <v>30</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="9">
         <v>13</v>
       </c>
-      <c r="D141" s="4">
-        <v>509</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>392</v>
+      <c r="D141" s="9">
+        <v>405</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>2</v>
-      </c>
-      <c r="B142" s="4">
+      <c r="A142" s="9">
+        <v>2</v>
+      </c>
+      <c r="B142" s="9">
         <v>30</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="9">
         <v>13</v>
       </c>
-      <c r="D142" s="4">
-        <v>510</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>393</v>
+      <c r="D142" s="9">
+        <v>406</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9949,10 +10021,10 @@
         <v>13</v>
       </c>
       <c r="D143" s="9">
-        <v>601</v>
+        <v>407</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9966,10 +10038,10 @@
         <v>13</v>
       </c>
       <c r="D144" s="9">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9983,10 +10055,10 @@
         <v>13</v>
       </c>
       <c r="D145" s="9">
-        <v>603</v>
+        <v>409</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10000,112 +10072,112 @@
         <v>13</v>
       </c>
       <c r="D146" s="9">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
-        <v>2</v>
-      </c>
-      <c r="B147" s="9">
+      <c r="A147" s="4">
+        <v>2</v>
+      </c>
+      <c r="B147" s="4">
         <v>30</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="4">
         <v>13</v>
       </c>
-      <c r="D147" s="9">
-        <v>605</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>398</v>
+      <c r="D147" s="4">
+        <v>501</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
-        <v>2</v>
-      </c>
-      <c r="B148" s="9">
+      <c r="A148" s="4">
+        <v>2</v>
+      </c>
+      <c r="B148" s="4">
         <v>30</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="4">
         <v>13</v>
       </c>
-      <c r="D148" s="9">
-        <v>606</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>399</v>
+      <c r="D148" s="4">
+        <v>502</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
-        <v>2</v>
-      </c>
-      <c r="B149" s="9">
+      <c r="A149" s="4">
+        <v>2</v>
+      </c>
+      <c r="B149" s="4">
         <v>30</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="4">
         <v>13</v>
       </c>
-      <c r="D149" s="9">
-        <v>607</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>400</v>
+      <c r="D149" s="4">
+        <v>503</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
-        <v>2</v>
-      </c>
-      <c r="B150" s="9">
+      <c r="A150" s="4">
+        <v>2</v>
+      </c>
+      <c r="B150" s="4">
         <v>30</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="4">
         <v>13</v>
       </c>
-      <c r="D150" s="9">
-        <v>608</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>401</v>
+      <c r="D150" s="4">
+        <v>504</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
-        <v>2</v>
-      </c>
-      <c r="B151" s="9">
+      <c r="A151" s="4">
+        <v>2</v>
+      </c>
+      <c r="B151" s="4">
         <v>30</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="4">
         <v>13</v>
       </c>
-      <c r="D151" s="9">
-        <v>609</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>402</v>
+      <c r="D151" s="4">
+        <v>505</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
-        <v>2</v>
-      </c>
-      <c r="B152" s="9">
+      <c r="A152" s="4">
+        <v>2</v>
+      </c>
+      <c r="B152" s="4">
         <v>30</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="4">
         <v>13</v>
       </c>
-      <c r="D152" s="9">
-        <v>610</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>403</v>
+      <c r="D152" s="4">
+        <v>506</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10119,10 +10191,10 @@
         <v>13</v>
       </c>
       <c r="D153" s="4">
-        <v>701</v>
+        <v>507</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10136,10 +10208,10 @@
         <v>13</v>
       </c>
       <c r="D154" s="4">
-        <v>702</v>
+        <v>508</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10153,10 +10225,10 @@
         <v>13</v>
       </c>
       <c r="D155" s="4">
-        <v>703</v>
+        <v>509</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10170,112 +10242,112 @@
         <v>13</v>
       </c>
       <c r="D156" s="4">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
-        <v>2</v>
-      </c>
-      <c r="B157" s="4">
+      <c r="A157" s="9">
+        <v>2</v>
+      </c>
+      <c r="B157" s="9">
         <v>30</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="9">
         <v>13</v>
       </c>
-      <c r="D157" s="4">
-        <v>705</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>408</v>
+      <c r="D157" s="9">
+        <v>601</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
-        <v>2</v>
-      </c>
-      <c r="B158" s="4">
+      <c r="A158" s="9">
+        <v>2</v>
+      </c>
+      <c r="B158" s="9">
         <v>30</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="9">
         <v>13</v>
       </c>
-      <c r="D158" s="4">
-        <v>706</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>409</v>
+      <c r="D158" s="9">
+        <v>602</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
-        <v>2</v>
-      </c>
-      <c r="B159" s="4">
+      <c r="A159" s="9">
+        <v>2</v>
+      </c>
+      <c r="B159" s="9">
         <v>30</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="9">
         <v>13</v>
       </c>
-      <c r="D159" s="4">
-        <v>707</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>410</v>
+      <c r="D159" s="9">
+        <v>603</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
-        <v>2</v>
-      </c>
-      <c r="B160" s="4">
+      <c r="A160" s="9">
+        <v>2</v>
+      </c>
+      <c r="B160" s="9">
         <v>30</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="9">
         <v>13</v>
       </c>
-      <c r="D160" s="4">
-        <v>708</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>411</v>
+      <c r="D160" s="9">
+        <v>604</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
-        <v>2</v>
-      </c>
-      <c r="B161" s="4">
+      <c r="A161" s="9">
+        <v>2</v>
+      </c>
+      <c r="B161" s="9">
         <v>30</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="9">
         <v>13</v>
       </c>
-      <c r="D161" s="4">
-        <v>709</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>412</v>
+      <c r="D161" s="9">
+        <v>605</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
-        <v>2</v>
-      </c>
-      <c r="B162" s="4">
+      <c r="A162" s="9">
+        <v>2</v>
+      </c>
+      <c r="B162" s="9">
         <v>30</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="9">
         <v>13</v>
       </c>
-      <c r="D162" s="4">
-        <v>710</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>413</v>
+      <c r="D162" s="9">
+        <v>606</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10286,13 +10358,13 @@
         <v>30</v>
       </c>
       <c r="C163" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163" s="9">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10303,13 +10375,13 @@
         <v>30</v>
       </c>
       <c r="C164" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D164" s="9">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10320,13 +10392,13 @@
         <v>30</v>
       </c>
       <c r="C165" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D165" s="9">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10337,114 +10409,352 @@
         <v>30</v>
       </c>
       <c r="C166" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D166" s="9">
+        <v>610</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>2</v>
+      </c>
+      <c r="B167" s="4">
+        <v>30</v>
+      </c>
+      <c r="C167" s="4">
+        <v>13</v>
+      </c>
+      <c r="D167" s="4">
+        <v>701</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>2</v>
+      </c>
+      <c r="B168" s="4">
+        <v>30</v>
+      </c>
+      <c r="C168" s="4">
+        <v>13</v>
+      </c>
+      <c r="D168" s="4">
+        <v>702</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>2</v>
+      </c>
+      <c r="B169" s="4">
+        <v>30</v>
+      </c>
+      <c r="C169" s="4">
+        <v>13</v>
+      </c>
+      <c r="D169" s="4">
+        <v>703</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>2</v>
+      </c>
+      <c r="B170" s="4">
+        <v>30</v>
+      </c>
+      <c r="C170" s="4">
+        <v>13</v>
+      </c>
+      <c r="D170" s="4">
         <v>704</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E170" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
-        <v>2</v>
-      </c>
-      <c r="B167" s="9">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>2</v>
+      </c>
+      <c r="B171" s="4">
         <v>30</v>
       </c>
-      <c r="C167" s="9">
-        <v>12</v>
-      </c>
-      <c r="D167" s="9">
+      <c r="C171" s="4">
+        <v>13</v>
+      </c>
+      <c r="D171" s="4">
         <v>705</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E171" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
-        <v>2</v>
-      </c>
-      <c r="B168" s="9">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>2</v>
+      </c>
+      <c r="B172" s="4">
         <v>30</v>
       </c>
-      <c r="C168" s="9">
-        <v>12</v>
-      </c>
-      <c r="D168" s="9">
+      <c r="C172" s="4">
+        <v>13</v>
+      </c>
+      <c r="D172" s="4">
         <v>706</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E172" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
-        <v>2</v>
-      </c>
-      <c r="B169" s="9">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>2</v>
+      </c>
+      <c r="B173" s="4">
         <v>30</v>
       </c>
-      <c r="C169" s="9">
-        <v>12</v>
-      </c>
-      <c r="D169" s="9">
+      <c r="C173" s="4">
+        <v>13</v>
+      </c>
+      <c r="D173" s="4">
         <v>707</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E173" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
-        <v>2</v>
-      </c>
-      <c r="B170" s="9">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>2</v>
+      </c>
+      <c r="B174" s="4">
         <v>30</v>
       </c>
-      <c r="C170" s="9">
-        <v>12</v>
-      </c>
-      <c r="D170" s="9">
+      <c r="C174" s="4">
+        <v>13</v>
+      </c>
+      <c r="D174" s="4">
         <v>708</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E174" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
-        <v>2</v>
-      </c>
-      <c r="B171" s="9">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>2</v>
+      </c>
+      <c r="B175" s="4">
         <v>30</v>
       </c>
-      <c r="C171" s="9">
-        <v>12</v>
-      </c>
-      <c r="D171" s="9">
+      <c r="C175" s="4">
+        <v>13</v>
+      </c>
+      <c r="D175" s="4">
         <v>709</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E175" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
-        <v>2</v>
-      </c>
-      <c r="B172" s="9">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>2</v>
+      </c>
+      <c r="B176" s="4">
         <v>30</v>
       </c>
-      <c r="C172" s="9">
-        <v>12</v>
-      </c>
-      <c r="D172" s="9">
+      <c r="C176" s="4">
+        <v>13</v>
+      </c>
+      <c r="D176" s="4">
         <v>710</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E176" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>2</v>
+      </c>
+      <c r="B177" s="9">
+        <v>30</v>
+      </c>
+      <c r="C177" s="9">
+        <v>12</v>
+      </c>
+      <c r="D177" s="9">
+        <v>701</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>2</v>
+      </c>
+      <c r="B178" s="9">
+        <v>30</v>
+      </c>
+      <c r="C178" s="9">
+        <v>12</v>
+      </c>
+      <c r="D178" s="9">
+        <v>702</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
+        <v>2</v>
+      </c>
+      <c r="B179" s="9">
+        <v>30</v>
+      </c>
+      <c r="C179" s="9">
+        <v>12</v>
+      </c>
+      <c r="D179" s="9">
+        <v>703</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>2</v>
+      </c>
+      <c r="B180" s="9">
+        <v>30</v>
+      </c>
+      <c r="C180" s="9">
+        <v>12</v>
+      </c>
+      <c r="D180" s="9">
+        <v>704</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
+        <v>2</v>
+      </c>
+      <c r="B181" s="9">
+        <v>30</v>
+      </c>
+      <c r="C181" s="9">
+        <v>12</v>
+      </c>
+      <c r="D181" s="9">
+        <v>705</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
+        <v>2</v>
+      </c>
+      <c r="B182" s="9">
+        <v>30</v>
+      </c>
+      <c r="C182" s="9">
+        <v>12</v>
+      </c>
+      <c r="D182" s="9">
+        <v>706</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
+        <v>2</v>
+      </c>
+      <c r="B183" s="9">
+        <v>30</v>
+      </c>
+      <c r="C183" s="9">
+        <v>12</v>
+      </c>
+      <c r="D183" s="9">
+        <v>707</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
+        <v>2</v>
+      </c>
+      <c r="B184" s="9">
+        <v>30</v>
+      </c>
+      <c r="C184" s="9">
+        <v>12</v>
+      </c>
+      <c r="D184" s="9">
+        <v>708</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
+        <v>2</v>
+      </c>
+      <c r="B185" s="9">
+        <v>30</v>
+      </c>
+      <c r="C185" s="9">
+        <v>12</v>
+      </c>
+      <c r="D185" s="9">
+        <v>709</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
+        <v>2</v>
+      </c>
+      <c r="B186" s="9">
+        <v>30</v>
+      </c>
+      <c r="C186" s="9">
+        <v>12</v>
+      </c>
+      <c r="D186" s="9">
+        <v>710</v>
+      </c>
+      <c r="E186" s="9" t="s">
         <v>413</v>
       </c>
     </row>

--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parnumber" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="512">
   <si>
     <t>Код</t>
   </si>
@@ -1556,16 +1556,13 @@
   </si>
   <si>
     <t>U 500 ВЯТКА</t>
-  </si>
-  <si>
-    <t>Q ГЭС (Реакт.мощность)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1592,6 +1589,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1687,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1728,6 +1734,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2353,8 +2360,8 @@
   </sheetPr>
   <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="E279" sqref="A278:E279"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,10 +7618,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7783,8 +7790,8 @@
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="19">
-        <v>3</v>
+      <c r="B10" s="20">
+        <v>30</v>
       </c>
       <c r="C10" s="19">
         <v>12</v>
@@ -7800,8 +7807,8 @@
       <c r="A11" s="19">
         <v>2</v>
       </c>
-      <c r="B11" s="19">
-        <v>3</v>
+      <c r="B11" s="20">
+        <v>30</v>
       </c>
       <c r="C11" s="19">
         <v>12</v>
@@ -7817,8 +7824,8 @@
       <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="B12" s="19">
-        <v>3</v>
+      <c r="B12" s="20">
+        <v>30</v>
       </c>
       <c r="C12" s="19">
         <v>12</v>
@@ -7950,28 +7957,28 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>2</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C20" s="19">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>19</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="4">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>101</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -7984,10 +7991,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8001,10 +8008,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8018,10 +8025,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8035,10 +8042,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8052,10 +8059,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8069,10 +8076,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8086,10 +8093,10 @@
         <v>12</v>
       </c>
       <c r="D28" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8103,10 +8110,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8120,27 +8127,27 @@
         <v>12</v>
       </c>
       <c r="D30" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="9">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4">
-        <v>110</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>428</v>
+      <c r="C31" s="9">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>201</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8154,10 +8161,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8171,10 +8178,10 @@
         <v>12</v>
       </c>
       <c r="D33" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8188,10 +8195,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8205,10 +8212,10 @@
         <v>12</v>
       </c>
       <c r="D35" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8222,10 +8229,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8239,10 +8246,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8256,10 +8263,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8273,10 +8280,10 @@
         <v>12</v>
       </c>
       <c r="D39" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8290,27 +8297,27 @@
         <v>12</v>
       </c>
       <c r="D40" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="C41" s="9">
-        <v>12</v>
-      </c>
-      <c r="D41" s="9">
-        <v>210</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>438</v>
+      <c r="C41" s="4">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4">
+        <v>301</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8324,10 +8331,10 @@
         <v>12</v>
       </c>
       <c r="D42" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8341,10 +8348,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8358,10 +8365,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8375,10 +8382,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8392,10 +8399,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8409,10 +8416,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8426,10 +8433,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8443,10 +8450,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8460,27 +8467,27 @@
         <v>12</v>
       </c>
       <c r="D50" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4">
+      <c r="A51" s="9">
+        <v>2</v>
+      </c>
+      <c r="B51" s="9">
         <v>3</v>
       </c>
-      <c r="C51" s="4">
-        <v>12</v>
-      </c>
-      <c r="D51" s="4">
-        <v>310</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>499</v>
+      <c r="C51" s="9">
+        <v>12</v>
+      </c>
+      <c r="D51" s="9">
+        <v>401</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8494,10 +8501,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="9">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8511,10 +8518,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="9">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8528,10 +8535,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8545,10 +8552,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8562,10 +8569,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="9">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8579,10 +8586,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="9">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8596,10 +8603,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="9">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8613,10 +8620,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="9">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8630,27 +8637,27 @@
         <v>12</v>
       </c>
       <c r="D60" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>2</v>
-      </c>
-      <c r="B61" s="9">
+      <c r="A61" s="4">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
         <v>3</v>
       </c>
-      <c r="C61" s="9">
-        <v>12</v>
-      </c>
-      <c r="D61" s="9">
-        <v>410</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>448</v>
+      <c r="C61" s="4">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4">
+        <v>501</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8664,10 +8671,10 @@
         <v>12</v>
       </c>
       <c r="D62" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8681,10 +8688,10 @@
         <v>12</v>
       </c>
       <c r="D63" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8698,10 +8705,10 @@
         <v>12</v>
       </c>
       <c r="D64" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8715,10 +8722,10 @@
         <v>12</v>
       </c>
       <c r="D65" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8732,10 +8739,10 @@
         <v>12</v>
       </c>
       <c r="D66" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8749,10 +8756,10 @@
         <v>12</v>
       </c>
       <c r="D67" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8766,10 +8773,10 @@
         <v>12</v>
       </c>
       <c r="D68" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8783,10 +8790,10 @@
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8800,27 +8807,27 @@
         <v>12</v>
       </c>
       <c r="D70" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>2</v>
-      </c>
-      <c r="B71" s="4">
+      <c r="A71" s="9">
+        <v>2</v>
+      </c>
+      <c r="B71" s="9">
         <v>3</v>
       </c>
-      <c r="C71" s="4">
-        <v>12</v>
-      </c>
-      <c r="D71" s="4">
-        <v>510</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>458</v>
+      <c r="C71" s="9">
+        <v>12</v>
+      </c>
+      <c r="D71" s="9">
+        <v>601</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8834,10 +8841,10 @@
         <v>12</v>
       </c>
       <c r="D72" s="9">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8851,10 +8858,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="9">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8868,10 +8875,10 @@
         <v>12</v>
       </c>
       <c r="D74" s="9">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8885,10 +8892,10 @@
         <v>12</v>
       </c>
       <c r="D75" s="9">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8902,10 +8909,10 @@
         <v>12</v>
       </c>
       <c r="D76" s="9">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8919,10 +8926,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="9">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8936,10 +8943,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="9">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8953,10 +8960,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="9">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8970,27 +8977,27 @@
         <v>12</v>
       </c>
       <c r="D80" s="9">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>2</v>
-      </c>
-      <c r="B81" s="9">
+      <c r="A81" s="4">
+        <v>2</v>
+      </c>
+      <c r="B81" s="4">
         <v>3</v>
       </c>
-      <c r="C81" s="9">
-        <v>12</v>
-      </c>
-      <c r="D81" s="9">
-        <v>610</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>468</v>
+      <c r="C81" s="4">
+        <v>12</v>
+      </c>
+      <c r="D81" s="4">
+        <v>701</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9004,10 +9011,10 @@
         <v>12</v>
       </c>
       <c r="D82" s="4">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9021,10 +9028,10 @@
         <v>12</v>
       </c>
       <c r="D83" s="4">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9038,10 +9045,10 @@
         <v>12</v>
       </c>
       <c r="D84" s="4">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9055,10 +9062,10 @@
         <v>12</v>
       </c>
       <c r="D85" s="4">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9072,10 +9079,10 @@
         <v>12</v>
       </c>
       <c r="D86" s="4">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9089,10 +9096,10 @@
         <v>12</v>
       </c>
       <c r="D87" s="4">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9106,10 +9113,10 @@
         <v>12</v>
       </c>
       <c r="D88" s="4">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9123,10 +9130,10 @@
         <v>12</v>
       </c>
       <c r="D89" s="4">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9140,27 +9147,27 @@
         <v>12</v>
       </c>
       <c r="D90" s="4">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>2</v>
-      </c>
-      <c r="B91" s="4">
+      <c r="A91" s="9">
+        <v>2</v>
+      </c>
+      <c r="B91" s="9">
         <v>3</v>
       </c>
-      <c r="C91" s="4">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4">
-        <v>710</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>478</v>
+      <c r="C91" s="9">
+        <v>12</v>
+      </c>
+      <c r="D91" s="9">
+        <v>801</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9174,10 +9181,10 @@
         <v>12</v>
       </c>
       <c r="D92" s="9">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9191,10 +9198,10 @@
         <v>12</v>
       </c>
       <c r="D93" s="9">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9208,10 +9215,10 @@
         <v>12</v>
       </c>
       <c r="D94" s="9">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9225,10 +9232,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="9">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9242,10 +9249,10 @@
         <v>12</v>
       </c>
       <c r="D96" s="9">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9259,10 +9266,10 @@
         <v>12</v>
       </c>
       <c r="D97" s="9">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9276,10 +9283,10 @@
         <v>12</v>
       </c>
       <c r="D98" s="9">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9293,10 +9300,10 @@
         <v>12</v>
       </c>
       <c r="D99" s="9">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9310,28 +9317,18 @@
         <v>12</v>
       </c>
       <c r="D100" s="9">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
-        <v>2</v>
-      </c>
-      <c r="B101" s="9">
-        <v>3</v>
-      </c>
-      <c r="C101" s="9">
-        <v>12</v>
-      </c>
-      <c r="D101" s="9">
-        <v>810</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
@@ -9341,11 +9338,21 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="A103" s="9">
+        <v>2</v>
+      </c>
+      <c r="B103" s="9">
+        <v>30</v>
+      </c>
+      <c r="C103" s="9">
+        <v>12</v>
+      </c>
+      <c r="D103" s="9">
+        <v>2</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
@@ -9358,10 +9365,10 @@
         <v>12</v>
       </c>
       <c r="D104" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9375,10 +9382,10 @@
         <v>12</v>
       </c>
       <c r="D105" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9392,10 +9399,10 @@
         <v>12</v>
       </c>
       <c r="D106" s="9">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,10 +9416,10 @@
         <v>12</v>
       </c>
       <c r="D107" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9426,7 +9433,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>349</v>
@@ -9443,10 +9450,10 @@
         <v>12</v>
       </c>
       <c r="D109" s="9">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9460,10 +9467,10 @@
         <v>12</v>
       </c>
       <c r="D110" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9477,27 +9484,27 @@
         <v>12</v>
       </c>
       <c r="D111" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
-        <v>2</v>
-      </c>
-      <c r="B112" s="9">
+      <c r="A112" s="4">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4">
         <v>30</v>
       </c>
-      <c r="C112" s="9">
-        <v>12</v>
-      </c>
-      <c r="D112" s="9">
-        <v>4</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>337</v>
+      <c r="C112" s="4">
+        <v>13</v>
+      </c>
+      <c r="D112" s="4">
+        <v>101</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9511,10 +9518,10 @@
         <v>13</v>
       </c>
       <c r="D113" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9528,10 +9535,10 @@
         <v>13</v>
       </c>
       <c r="D114" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9545,10 +9552,10 @@
         <v>13</v>
       </c>
       <c r="D115" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9562,10 +9569,10 @@
         <v>13</v>
       </c>
       <c r="D116" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9579,10 +9586,10 @@
         <v>13</v>
       </c>
       <c r="D117" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9596,10 +9603,10 @@
         <v>13</v>
       </c>
       <c r="D118" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9613,10 +9620,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9630,10 +9637,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9647,27 +9654,27 @@
         <v>13</v>
       </c>
       <c r="D121" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>2</v>
-      </c>
-      <c r="B122" s="4">
+      <c r="A122" s="9">
+        <v>2</v>
+      </c>
+      <c r="B122" s="9">
         <v>30</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="9">
         <v>13</v>
       </c>
-      <c r="D122" s="4">
-        <v>110</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>359</v>
+      <c r="D122" s="9">
+        <v>201</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9681,10 +9688,10 @@
         <v>13</v>
       </c>
       <c r="D123" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9698,10 +9705,10 @@
         <v>13</v>
       </c>
       <c r="D124" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9715,10 +9722,10 @@
         <v>13</v>
       </c>
       <c r="D125" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9732,10 +9739,10 @@
         <v>13</v>
       </c>
       <c r="D126" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9749,10 +9756,10 @@
         <v>13</v>
       </c>
       <c r="D127" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9766,10 +9773,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9783,10 +9790,10 @@
         <v>13</v>
       </c>
       <c r="D129" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9800,10 +9807,10 @@
         <v>13</v>
       </c>
       <c r="D130" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9817,27 +9824,27 @@
         <v>13</v>
       </c>
       <c r="D131" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
-        <v>2</v>
-      </c>
-      <c r="B132" s="9">
+      <c r="A132" s="4">
+        <v>2</v>
+      </c>
+      <c r="B132" s="4">
         <v>30</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="4">
         <v>13</v>
       </c>
-      <c r="D132" s="9">
-        <v>210</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>369</v>
+      <c r="D132" s="4">
+        <v>301</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9851,10 +9858,10 @@
         <v>13</v>
       </c>
       <c r="D133" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9868,10 +9875,10 @@
         <v>13</v>
       </c>
       <c r="D134" s="4">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9885,27 +9892,27 @@
         <v>13</v>
       </c>
       <c r="D135" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>2</v>
-      </c>
-      <c r="B136" s="4">
+      <c r="A136" s="9">
+        <v>2</v>
+      </c>
+      <c r="B136" s="9">
         <v>30</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="9">
         <v>13</v>
       </c>
-      <c r="D136" s="4">
-        <v>310</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>373</v>
+      <c r="D136" s="9">
+        <v>401</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9919,10 +9926,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="9">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9936,10 +9943,10 @@
         <v>13</v>
       </c>
       <c r="D138" s="9">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9953,10 +9960,10 @@
         <v>13</v>
       </c>
       <c r="D139" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9970,10 +9977,10 @@
         <v>13</v>
       </c>
       <c r="D140" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9987,10 +9994,10 @@
         <v>13</v>
       </c>
       <c r="D141" s="9">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10004,10 +10011,10 @@
         <v>13</v>
       </c>
       <c r="D142" s="9">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10021,10 +10028,10 @@
         <v>13</v>
       </c>
       <c r="D143" s="9">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10038,10 +10045,10 @@
         <v>13</v>
       </c>
       <c r="D144" s="9">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10055,27 +10062,27 @@
         <v>13</v>
       </c>
       <c r="D145" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
-        <v>2</v>
-      </c>
-      <c r="B146" s="9">
+      <c r="A146" s="4">
+        <v>2</v>
+      </c>
+      <c r="B146" s="4">
         <v>30</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="4">
         <v>13</v>
       </c>
-      <c r="D146" s="9">
-        <v>410</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>383</v>
+      <c r="D146" s="4">
+        <v>501</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10089,10 +10096,10 @@
         <v>13</v>
       </c>
       <c r="D147" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10106,10 +10113,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10123,10 +10130,10 @@
         <v>13</v>
       </c>
       <c r="D149" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10140,10 +10147,10 @@
         <v>13</v>
       </c>
       <c r="D150" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10157,10 +10164,10 @@
         <v>13</v>
       </c>
       <c r="D151" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10174,10 +10181,10 @@
         <v>13</v>
       </c>
       <c r="D152" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10191,10 +10198,10 @@
         <v>13</v>
       </c>
       <c r="D153" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10208,10 +10215,10 @@
         <v>13</v>
       </c>
       <c r="D154" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10225,27 +10232,27 @@
         <v>13</v>
       </c>
       <c r="D155" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
-        <v>2</v>
-      </c>
-      <c r="B156" s="4">
+      <c r="A156" s="9">
+        <v>2</v>
+      </c>
+      <c r="B156" s="9">
         <v>30</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="9">
         <v>13</v>
       </c>
-      <c r="D156" s="4">
-        <v>510</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>393</v>
+      <c r="D156" s="9">
+        <v>601</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10259,10 +10266,10 @@
         <v>13</v>
       </c>
       <c r="D157" s="9">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10276,10 +10283,10 @@
         <v>13</v>
       </c>
       <c r="D158" s="9">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10293,10 +10300,10 @@
         <v>13</v>
       </c>
       <c r="D159" s="9">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10310,10 +10317,10 @@
         <v>13</v>
       </c>
       <c r="D160" s="9">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10327,10 +10334,10 @@
         <v>13</v>
       </c>
       <c r="D161" s="9">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10344,10 +10351,10 @@
         <v>13</v>
       </c>
       <c r="D162" s="9">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10361,10 +10368,10 @@
         <v>13</v>
       </c>
       <c r="D163" s="9">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10378,10 +10385,10 @@
         <v>13</v>
       </c>
       <c r="D164" s="9">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10395,27 +10402,27 @@
         <v>13</v>
       </c>
       <c r="D165" s="9">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
-        <v>2</v>
-      </c>
-      <c r="B166" s="9">
+      <c r="A166" s="4">
+        <v>2</v>
+      </c>
+      <c r="B166" s="4">
         <v>30</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="4">
         <v>13</v>
       </c>
-      <c r="D166" s="9">
-        <v>610</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>403</v>
+      <c r="D166" s="4">
+        <v>701</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10429,10 +10436,10 @@
         <v>13</v>
       </c>
       <c r="D167" s="4">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10446,10 +10453,10 @@
         <v>13</v>
       </c>
       <c r="D168" s="4">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10463,10 +10470,10 @@
         <v>13</v>
       </c>
       <c r="D169" s="4">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10480,10 +10487,10 @@
         <v>13</v>
       </c>
       <c r="D170" s="4">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10497,10 +10504,10 @@
         <v>13</v>
       </c>
       <c r="D171" s="4">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10514,10 +10521,10 @@
         <v>13</v>
       </c>
       <c r="D172" s="4">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10531,10 +10538,10 @@
         <v>13</v>
       </c>
       <c r="D173" s="4">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10548,10 +10555,10 @@
         <v>13</v>
       </c>
       <c r="D174" s="4">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10565,27 +10572,27 @@
         <v>13</v>
       </c>
       <c r="D175" s="4">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
-        <v>2</v>
-      </c>
-      <c r="B176" s="4">
+      <c r="A176" s="9">
+        <v>2</v>
+      </c>
+      <c r="B176" s="9">
         <v>30</v>
       </c>
-      <c r="C176" s="4">
-        <v>13</v>
-      </c>
-      <c r="D176" s="4">
-        <v>710</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>413</v>
+      <c r="C176" s="9">
+        <v>12</v>
+      </c>
+      <c r="D176" s="9">
+        <v>701</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10599,10 +10606,10 @@
         <v>12</v>
       </c>
       <c r="D177" s="9">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10616,10 +10623,10 @@
         <v>12</v>
       </c>
       <c r="D178" s="9">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10633,10 +10640,10 @@
         <v>12</v>
       </c>
       <c r="D179" s="9">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10650,10 +10657,10 @@
         <v>12</v>
       </c>
       <c r="D180" s="9">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10667,10 +10674,10 @@
         <v>12</v>
       </c>
       <c r="D181" s="9">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10684,10 +10691,10 @@
         <v>12</v>
       </c>
       <c r="D182" s="9">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10701,10 +10708,10 @@
         <v>12</v>
       </c>
       <c r="D183" s="9">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10718,10 +10725,10 @@
         <v>12</v>
       </c>
       <c r="D184" s="9">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10735,26 +10742,9 @@
         <v>12</v>
       </c>
       <c r="D185" s="9">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
-        <v>2</v>
-      </c>
-      <c r="B186" s="9">
-        <v>30</v>
-      </c>
-      <c r="C186" s="9">
-        <v>12</v>
-      </c>
-      <c r="D186" s="9">
-        <v>710</v>
-      </c>
-      <c r="E186" s="9" t="s">
         <v>413</v>
       </c>
     </row>

--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parnumber" sheetId="2" r:id="rId1"/>
@@ -2409,7 +2409,7 @@
   </sheetPr>
   <dimension ref="A1:E319"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A260" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A260" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
@@ -7847,7 +7847,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="181" max="16383" man="1"/>
     <brk id="219" max="16383" man="1"/>
@@ -7863,8 +7863,8 @@
   </sheetPr>
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10829,7 +10829,7 @@
         <v>30</v>
       </c>
       <c r="C176" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D176" s="9">
         <v>701</v>
@@ -10846,7 +10846,7 @@
         <v>30</v>
       </c>
       <c r="C177" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" s="9">
         <v>702</v>
@@ -10863,7 +10863,7 @@
         <v>30</v>
       </c>
       <c r="C178" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D178" s="9">
         <v>703</v>
@@ -10880,7 +10880,7 @@
         <v>30</v>
       </c>
       <c r="C179" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D179" s="9">
         <v>704</v>
@@ -10897,7 +10897,7 @@
         <v>30</v>
       </c>
       <c r="C180" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D180" s="9">
         <v>705</v>
@@ -10914,7 +10914,7 @@
         <v>30</v>
       </c>
       <c r="C181" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181" s="9">
         <v>706</v>
@@ -10931,7 +10931,7 @@
         <v>30</v>
       </c>
       <c r="C182" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182" s="9">
         <v>707</v>
@@ -10948,7 +10948,7 @@
         <v>30</v>
       </c>
       <c r="C183" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183" s="9">
         <v>708</v>
@@ -10965,7 +10965,7 @@
         <v>30</v>
       </c>
       <c r="C184" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D184" s="9">
         <v>709</v>
@@ -10982,7 +10982,7 @@
         <v>30</v>
       </c>
       <c r="C185" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D185" s="9">
         <v>710</v>
